--- a/PDFs/Instrucciones implementadas.xlsx
+++ b/PDFs/Instrucciones implementadas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="129">
   <si>
     <t>Instruction</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Inmediato: imm3:imm2</t>
   </si>
   <si>
-    <t>Bit SBZ? Bits imm3:imm2? Bits type?</t>
-  </si>
-  <si>
     <t>bits "imm" y "type" para operación move?</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>imm12</t>
   </si>
   <si>
-    <t>S: 1=sign extended, 0=zero extended</t>
-  </si>
-  <si>
     <t>L: 0=Store, 1=Load</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
   </si>
   <si>
     <t>offset[11:1]</t>
-  </si>
-  <si>
-    <t>Instrucciones de 16bits: (offset[0]=0)</t>
   </si>
   <si>
     <t>Conditional Branch</t>
@@ -335,6 +326,120 @@
   <si>
     <t>Load / Store</t>
   </si>
+  <si>
+    <t>S=1 activa las flags de la ALU</t>
+  </si>
+  <si>
+    <t>Bits imm3:imm2?</t>
+  </si>
+  <si>
+    <t>Bit SBZ?</t>
+  </si>
+  <si>
+    <t>Bits type?</t>
+  </si>
+  <si>
+    <t>Not 11</t>
+  </si>
+  <si>
+    <t>S(for load): 1=sign extended, 0=zero extended</t>
+  </si>
+  <si>
+    <t>Por defecto:</t>
+  </si>
+  <si>
+    <t>Size=00</t>
+  </si>
+  <si>
+    <t>S=0</t>
+  </si>
+  <si>
+    <t>Instrucciones ocupan minimo 16bits en memoria: (offset[0]=0)</t>
+  </si>
+  <si>
+    <t>Rn=direccion carga</t>
+  </si>
+  <si>
+    <t>Rt=registro destino</t>
+  </si>
+  <si>
+    <t>Ejemplos</t>
+  </si>
+  <si>
+    <t>31 downto 16</t>
+  </si>
+  <si>
+    <t>15 downto 0</t>
+  </si>
+  <si>
+    <t>1111000000000000</t>
+  </si>
+  <si>
+    <t>1111100010010001</t>
+  </si>
+  <si>
+    <t>0010000000000000</t>
+  </si>
+  <si>
+    <t>1111100010000010</t>
+  </si>
+  <si>
+    <t>0011000000000010</t>
+  </si>
+  <si>
+    <t>LDR R1, R2, #0</t>
+  </si>
+  <si>
+    <t>STR R2, R3, #2</t>
+  </si>
+  <si>
+    <t>ADD R1, R1, #4</t>
+  </si>
+  <si>
+    <t>MOVT R1, #15</t>
+  </si>
+  <si>
+    <t>SUB R1, R1, #8</t>
+  </si>
+  <si>
+    <t>1111001000000001</t>
+  </si>
+  <si>
+    <t>0000000100000100</t>
+  </si>
+  <si>
+    <t>1111001010100001</t>
+  </si>
+  <si>
+    <t>1111001000000000</t>
+  </si>
+  <si>
+    <t>1111001011000000</t>
+  </si>
+  <si>
+    <t>0000000100001111</t>
+  </si>
+  <si>
+    <t>Rt = Dato</t>
+  </si>
+  <si>
+    <t>Rn = Direccion</t>
+  </si>
+  <si>
+    <t>MOV R1, #13</t>
+  </si>
+  <si>
+    <t>0000000100001101</t>
+  </si>
+  <si>
+    <t>0000000100001000</t>
+  </si>
+  <si>
+    <t>B &lt;+768&gt;</t>
+  </si>
+  <si>
+    <t>1001000110000000</t>
+  </si>
 </sst>
 </file>
 
@@ -365,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +480,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,6 +687,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,7 +705,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -872,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1005,98 +1160,98 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
     </row>
     <row r="4" spans="2:34">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2" t="s">
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
     </row>
     <row r="5" spans="2:34">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1112,48 +1267,48 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
+      <c r="N5" s="22"/>
+      <c r="O5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2" t="s">
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
     </row>
     <row r="6" spans="2:34">
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1169,38 +1324,38 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="22"/>
+      <c r="O6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2" t="s">
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
     </row>
     <row r="7" spans="2:34">
       <c r="T7" s="3"/>
@@ -1242,92 +1397,92 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
     </row>
     <row r="9" spans="2:34">
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
       <c r="S9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="T9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2" t="s">
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2" t="s">
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2" t="s">
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2" t="s">
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -1350,35 +1505,781 @@
       <c r="I11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
     </row>
     <row r="12" spans="2:34">
       <c r="B12" t="s">
         <v>50</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+    </row>
+    <row r="13" spans="2:34">
+      <c r="B13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+    </row>
+    <row r="14" spans="2:34">
+      <c r="B14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+    </row>
+    <row r="16" spans="2:34">
+      <c r="B16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+    </row>
+    <row r="17" spans="2:34">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+    </row>
+    <row r="18" spans="2:34">
+      <c r="B18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X18" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="T3:AH3"/>
+    <mergeCell ref="C4:G6"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="X17:AH17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="J8:AH8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="X18:AH18"/>
+    <mergeCell ref="J11:AH11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:AH12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="O13:R14"/>
+    <mergeCell ref="H16:R16"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S13:V14"/>
+    <mergeCell ref="W13:AH14"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="C12:I14"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Z9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:AV42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6:AH6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="34" width="3" style="1" customWidth="1"/>
+    <col min="35" max="36" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.28515625" customWidth="1"/>
+    <col min="39" max="39" width="16.28515625" customWidth="1"/>
+    <col min="40" max="40" width="6.42578125" customWidth="1"/>
+    <col min="41" max="42" width="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:37">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1">
+        <v>15</v>
+      </c>
+      <c r="T2" s="1">
+        <v>14</v>
+      </c>
+      <c r="U2" s="1">
+        <v>13</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12</v>
+      </c>
+      <c r="W2" s="1">
+        <v>11</v>
+      </c>
+      <c r="X2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+    </row>
+    <row r="4" spans="2:37">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AJ4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AK5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AK6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AJ7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:37">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:37">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:37">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:37">
+      <c r="B12" t="s">
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1387,34 +2288,20 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -1426,76 +2313,74 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
-    </row>
-    <row r="13" spans="2:34">
-      <c r="B13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="AI12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-    </row>
-    <row r="14" spans="2:34">
-      <c r="B14" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="34"/>
+    </row>
+    <row r="14" spans="2:37">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1516,925 +2401,837 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-    </row>
-    <row r="16" spans="2:34">
-      <c r="B16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="5">
-        <v>1</v>
-      </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="6"/>
-    </row>
-    <row r="17" spans="2:34">
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V17" s="1">
-        <v>1</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-    </row>
-    <row r="18" spans="2:34">
-      <c r="B18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="34"/>
+    </row>
+    <row r="15" spans="2:37">
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15" s="36">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+      <c r="P15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>0</v>
+      </c>
+      <c r="R15" s="32">
+        <v>1</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="35">
+        <v>0</v>
+      </c>
+      <c r="U15" s="35">
+        <v>0</v>
+      </c>
+      <c r="V15" s="35">
+        <v>0</v>
+      </c>
+      <c r="W15" s="30">
+        <v>0</v>
+      </c>
+      <c r="X15" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="35">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ15" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37">
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="36">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="32">
+        <v>0</v>
+      </c>
+      <c r="P16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>0</v>
+      </c>
+      <c r="R16" s="32">
+        <v>1</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="35">
+        <v>0</v>
+      </c>
+      <c r="U16" s="35">
+        <v>0</v>
+      </c>
+      <c r="V16" s="35">
+        <v>0</v>
+      </c>
+      <c r="W16" s="30">
+        <v>0</v>
+      </c>
+      <c r="X16" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="35">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ16" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42">
+      <c r="B17" s="37"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="34"/>
+    </row>
+    <row r="18" spans="2:42">
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="36">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="35">
+        <v>0</v>
+      </c>
+      <c r="P18" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="35">
+        <v>0</v>
+      </c>
+      <c r="R18" s="35">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="35">
+        <v>0</v>
+      </c>
+      <c r="U18" s="35">
+        <v>0</v>
+      </c>
+      <c r="V18" s="35">
+        <v>0</v>
+      </c>
+      <c r="W18" s="30">
+        <v>0</v>
+      </c>
+      <c r="X18" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="35">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="35">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="35">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ18" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK18" s="8"/>
+    </row>
+    <row r="19" spans="2:42">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19" s="36">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="35">
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="35">
+        <v>0</v>
+      </c>
+      <c r="R19" s="35">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="35">
+        <v>0</v>
+      </c>
+      <c r="U19" s="35">
+        <v>0</v>
+      </c>
+      <c r="V19" s="35">
+        <v>0</v>
+      </c>
+      <c r="W19" s="30">
+        <v>0</v>
+      </c>
+      <c r="X19" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="35">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="35">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="35">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="35">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ19" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK19" s="34"/>
+    </row>
+    <row r="20" spans="2:42">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:42">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:42">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="V22" s="38"/>
+    </row>
+    <row r="23" spans="2:42" ht="15.75" thickBot="1">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="2:42" ht="15.75" thickBot="1">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="AJ24" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="26"/>
+    </row>
+    <row r="25" spans="2:42" ht="15.75" thickBot="1">
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="AJ25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP25" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42">
+      <c r="AJ26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="10"/>
+    </row>
+    <row r="27" spans="2:42">
+      <c r="AJ27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="10"/>
+    </row>
+    <row r="28" spans="2:42">
+      <c r="AJ28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42">
+      <c r="AJ29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="10"/>
+    </row>
+    <row r="30" spans="2:42">
+      <c r="AJ30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42">
+      <c r="AJ31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="10"/>
+    </row>
+    <row r="32" spans="2:42" ht="15.75" thickBot="1">
+      <c r="AJ32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="14"/>
+    </row>
+    <row r="33" spans="36:41" ht="15.75" thickBot="1">
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+    </row>
+    <row r="34" spans="36:41" ht="15.75" thickBot="1">
+      <c r="AJ34" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="1"/>
+    </row>
+    <row r="35" spans="36:41" ht="15.75" thickBot="1">
+      <c r="AJ35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK35" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM35" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN35" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO35" s="1"/>
+    </row>
+    <row r="36" spans="36:41">
+      <c r="AJ36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="1"/>
+    </row>
+    <row r="37" spans="36:41" ht="15.75" thickBot="1">
+      <c r="AJ37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK37" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="1"/>
+    </row>
+    <row r="38" spans="36:41" ht="15.75" thickBot="1">
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="1"/>
+    </row>
+    <row r="39" spans="36:41" ht="15.75" thickBot="1">
+      <c r="AJ39" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK39" s="25"/>
+      <c r="AL39" s="25"/>
+      <c r="AM39" s="25"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="1"/>
+    </row>
+    <row r="40" spans="36:41" ht="15.75" thickBot="1">
+      <c r="AJ40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK40" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO40" s="1"/>
+    </row>
+    <row r="41" spans="36:41">
+      <c r="AJ41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="1"/>
+    </row>
+    <row r="42" spans="36:41" ht="15.75" thickBot="1">
+      <c r="AJ42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="S13:V14"/>
-    <mergeCell ref="W13:AH14"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J8:AH8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="X18:AH18"/>
-    <mergeCell ref="J11:AH11"/>
-    <mergeCell ref="C12:I14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:AH12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="O13:R14"/>
-    <mergeCell ref="H16:R16"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="X17:AH17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
+  <mergeCells count="22">
+    <mergeCell ref="AJ39:AN39"/>
     <mergeCell ref="H3:R3"/>
     <mergeCell ref="T3:AH3"/>
-    <mergeCell ref="C4:G6"/>
-    <mergeCell ref="J4:M4"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:S6"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="W4:Z4"/>
     <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Z9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AT28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:AH18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="10" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="24" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="34" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.28515625" customWidth="1"/>
-    <col min="37" max="37" width="16.28515625" customWidth="1"/>
-    <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:42">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1">
-        <v>16</v>
-      </c>
-      <c r="S2" s="1">
-        <v>15</v>
-      </c>
-      <c r="T2" s="1">
-        <v>14</v>
-      </c>
-      <c r="U2" s="1">
-        <v>13</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12</v>
-      </c>
-      <c r="W2" s="1">
-        <v>11</v>
-      </c>
-      <c r="X2" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>6</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:42">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-    </row>
-    <row r="4" spans="2:42">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AJ4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:42">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AK5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:42">
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AK6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:42">
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-    </row>
-    <row r="9" spans="2:42" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ10" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="23"/>
-    </row>
-    <row r="11" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK11" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP11" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:42">
-      <c r="AJ12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL12" s="9">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="10"/>
-    </row>
-    <row r="13" spans="2:42">
-      <c r="AJ13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="10"/>
-    </row>
-    <row r="14" spans="2:42">
-      <c r="AJ14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:42">
-      <c r="AJ15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="9">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="10"/>
-    </row>
-    <row r="16" spans="2:42">
-      <c r="AJ16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="36:42">
-      <c r="AJ17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="10"/>
-    </row>
-    <row r="18" spans="36:42" ht="15.75" thickBot="1">
-      <c r="AJ18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="14"/>
-    </row>
-    <row r="19" spans="36:42" ht="15.75" thickBot="1">
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-    </row>
-    <row r="20" spans="36:42" ht="15.75" thickBot="1">
-      <c r="AJ20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK20" s="22"/>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="23"/>
-      <c r="AO20" s="1"/>
-    </row>
-    <row r="21" spans="36:42" ht="15.75" thickBot="1">
-      <c r="AJ21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK21" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN21" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO21" s="1"/>
-    </row>
-    <row r="22" spans="36:42">
-      <c r="AJ22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="1"/>
-    </row>
-    <row r="23" spans="36:42" ht="15.75" thickBot="1">
-      <c r="AJ23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="13">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="1"/>
-    </row>
-    <row r="24" spans="36:42" ht="15.75" thickBot="1">
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-    </row>
-    <row r="25" spans="36:42" ht="15.75" thickBot="1">
-      <c r="AJ25" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="1"/>
-    </row>
-    <row r="26" spans="36:42" ht="15.75" thickBot="1">
-      <c r="AJ26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM26" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN26" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO26" s="1"/>
-    </row>
-    <row r="27" spans="36:42">
-      <c r="AJ27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL27" s="9">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="1"/>
-    </row>
-    <row r="28" spans="36:42" ht="15.75" thickBot="1">
-      <c r="AJ28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AJ20:AN20"/>
-    <mergeCell ref="AJ25:AN25"/>
+    <mergeCell ref="AJ34:AN34"/>
     <mergeCell ref="C4:G6"/>
     <mergeCell ref="S4:S6"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="AJ10:AP10"/>
+    <mergeCell ref="AJ24:AP24"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="T5:V5"/>
@@ -2444,12 +3241,6 @@
     <mergeCell ref="W6:Z6"/>
     <mergeCell ref="AA6:AH6"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="T3:AH3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA4:AH4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2461,16 +3252,17 @@
   <dimension ref="B2:AT28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="2.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="3.85546875" style="1" customWidth="1"/>
     <col min="20" max="34" width="2.85546875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="12.140625" customWidth="1"/>
+    <col min="36" max="36" width="22" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.28515625" customWidth="1"/>
     <col min="38" max="41" width="6" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -2605,93 +3397,93 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
       <c r="S4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2" t="s">
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2" t="s">
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2" t="s">
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
       <c r="AJ4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK4" t="s">
         <v>57</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:42">
@@ -2702,7 +3494,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="AJ5" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:42">
@@ -2712,6 +3504,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
+      <c r="AJ6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="2:42">
       <c r="C7" s="3"/>
@@ -2720,6 +3515,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
+      <c r="AJ7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="2:42">
       <c r="C8" s="3"/>
@@ -2731,15 +3529,15 @@
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ10" s="21" t="s">
+      <c r="AJ10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="23"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="26"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1">
       <c r="AJ11" s="17" t="s">
@@ -3105,17 +3903,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
     <mergeCell ref="AJ10:AP10"/>
     <mergeCell ref="J3:AH3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3126,18 +3924,21 @@
   <dimension ref="B2:AT28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AH6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="18" width="2.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="3.85546875" style="1" customWidth="1"/>
     <col min="20" max="34" width="2.85546875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="12.140625" customWidth="1"/>
+    <col min="35" max="35" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.85546875" customWidth="1"/>
     <col min="37" max="37" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.140625" customWidth="1"/>
+    <col min="40" max="40" width="6" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -3251,7 +4052,7 @@
     </row>
     <row r="3" spans="2:42">
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3274,180 +4075,184 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
       <c r="AJ4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:42">
       <c r="B5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="O5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
       <c r="AJ5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:42">
       <c r="B6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
+      <c r="O6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
       <c r="AJ6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:42">
@@ -3458,7 +4263,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="AJ7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:42">
@@ -3468,18 +4273,19 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ10" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="23"/>
+      <c r="AJ10" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="26"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1">
       <c r="AJ11" s="17" t="s">
@@ -3492,13 +4298,13 @@
         <v>7</v>
       </c>
       <c r="AM11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AN11" s="19" t="s">
+      <c r="AO11" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="AO11" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="AP11" s="20" t="s">
         <v>40</v>
@@ -3506,43 +4312,43 @@
     </row>
     <row r="12" spans="2:42">
       <c r="AJ12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AK12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM12" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="AN12" s="9">
         <v>1</v>
       </c>
       <c r="AO12" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AP12" s="10"/>
     </row>
     <row r="13" spans="2:42" ht="15.75" thickBot="1">
       <c r="AJ13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="AK13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="13">
-        <v>11</v>
-      </c>
-      <c r="AN13" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="AP13" s="14"/>
     </row>
@@ -3556,7 +4362,47 @@
       <c r="AP14" s="8"/>
     </row>
     <row r="15" spans="2:42">
-      <c r="AJ15" s="8"/>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="AK15" s="8"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
@@ -3565,39 +4411,258 @@
       <c r="AP15" s="8"/>
     </row>
     <row r="16" spans="2:42">
-      <c r="AJ16" s="8"/>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="31">
+        <v>0</v>
+      </c>
+      <c r="P16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>0</v>
+      </c>
+      <c r="R16" s="32">
+        <v>1</v>
+      </c>
+      <c r="S16" s="30">
+        <v>0</v>
+      </c>
+      <c r="T16" s="30">
+        <v>0</v>
+      </c>
+      <c r="U16" s="30">
+        <v>1</v>
+      </c>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
+      <c r="W16" s="35">
+        <v>0</v>
+      </c>
+      <c r="X16" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ16" s="34" t="s">
+        <v>108</v>
+      </c>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="9"/>
+      <c r="AL16" s="27" t="s">
+        <v>97</v>
+      </c>
       <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="8"/>
     </row>
-    <row r="17" spans="3:46">
-      <c r="AJ17" s="8"/>
+    <row r="17" spans="2:46">
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="34"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="9"/>
+      <c r="AL17" s="27" t="s">
+        <v>98</v>
+      </c>
       <c r="AM17" s="9"/>
-      <c r="AN17" s="24"/>
+      <c r="AN17" s="21"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="8"/>
     </row>
-    <row r="18" spans="3:46">
-      <c r="AJ18" s="8"/>
+    <row r="18" spans="2:46">
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="31">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>1</v>
+      </c>
+      <c r="R18" s="32">
+        <v>0</v>
+      </c>
+      <c r="S18" s="30">
+        <v>0</v>
+      </c>
+      <c r="T18" s="30">
+        <v>0</v>
+      </c>
+      <c r="U18" s="30">
+        <v>1</v>
+      </c>
+      <c r="V18" s="30">
+        <v>1</v>
+      </c>
+      <c r="W18" s="35">
+        <v>0</v>
+      </c>
+      <c r="X18" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="35">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ18" s="34" t="s">
+        <v>110</v>
+      </c>
       <c r="AK18" s="8"/>
-      <c r="AL18" s="9"/>
+      <c r="AL18" s="27" t="s">
+        <v>99</v>
+      </c>
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="9"/>
       <c r="AP18" s="8"/>
     </row>
-    <row r="19" spans="3:46">
-      <c r="AL19" s="1"/>
+    <row r="19" spans="2:46">
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="34"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
     </row>
-    <row r="20" spans="3:46">
+    <row r="20" spans="2:46">
+      <c r="B20" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3627,8 +4692,11 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-      <c r="AJ20" s="1"/>
-      <c r="AL20" s="1"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="34"/>
+      <c r="AL20" s="27" t="s">
+        <v>101</v>
+      </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
@@ -3637,8 +4705,10 @@
       <c r="AS20"/>
       <c r="AT20"/>
     </row>
-    <row r="21" spans="3:46">
-      <c r="C21" s="3"/>
+    <row r="21" spans="2:46">
+      <c r="B21" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3665,8 +4735,11 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AJ21" s="1"/>
-      <c r="AL21" s="1"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="34"/>
+      <c r="AL21" s="27" t="s">
+        <v>102</v>
+      </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -3675,8 +4748,8 @@
       <c r="AS21"/>
       <c r="AT21"/>
     </row>
-    <row r="22" spans="3:46">
-      <c r="C22" s="3"/>
+    <row r="22" spans="2:46">
+      <c r="B22" s="1"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3703,7 +4776,8 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AJ22" s="1"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="34"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
@@ -3713,8 +4787,9 @@
       <c r="AS22"/>
       <c r="AT22"/>
     </row>
-    <row r="23" spans="3:46">
-      <c r="AJ23" s="1"/>
+    <row r="23" spans="2:46">
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="34"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
@@ -3724,8 +4799,9 @@
       <c r="AS23"/>
       <c r="AT23"/>
     </row>
-    <row r="24" spans="3:46">
-      <c r="AJ24" s="1"/>
+    <row r="24" spans="2:46">
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="34"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
@@ -3735,8 +4811,9 @@
       <c r="AS24"/>
       <c r="AT24"/>
     </row>
-    <row r="25" spans="3:46">
-      <c r="AJ25" s="1"/>
+    <row r="25" spans="2:46">
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="34"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
@@ -3746,8 +4823,9 @@
       <c r="AS25"/>
       <c r="AT25"/>
     </row>
-    <row r="26" spans="3:46">
-      <c r="AJ26" s="1"/>
+    <row r="26" spans="2:46">
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="34"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
@@ -3757,8 +4835,9 @@
       <c r="AS26"/>
       <c r="AT26"/>
     </row>
-    <row r="27" spans="3:46">
-      <c r="AJ27" s="1"/>
+    <row r="27" spans="2:46">
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="34"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
@@ -3768,7 +4847,7 @@
       <c r="AS27"/>
       <c r="AT27"/>
     </row>
-    <row r="28" spans="3:46">
+    <row r="28" spans="2:46">
       <c r="AJ28" s="1"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
@@ -3780,18 +4859,22 @@
       <c r="AT28"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="W5:AH6"/>
+  <mergeCells count="15">
+    <mergeCell ref="J3:AH3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="W5:AH5"/>
+    <mergeCell ref="W6:AH6"/>
+    <mergeCell ref="L5:M6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="C4:I6"/>
     <mergeCell ref="AJ10:AP10"/>
     <mergeCell ref="W4:AH4"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O5:R6"/>
-    <mergeCell ref="S5:V6"/>
-    <mergeCell ref="J3:AH3"/>
-    <mergeCell ref="O4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3801,16 +4884,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AT28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AH5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="24" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="34" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="23" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="34" width="3" style="1" customWidth="1"/>
+    <col min="35" max="35" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" customWidth="1"/>
     <col min="38" max="40" width="6" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -3925,7 +5009,7 @@
     </row>
     <row r="3" spans="2:46">
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3942,88 +5026,88 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
       <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+      <c r="I4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
       <c r="T4" s="1">
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="V4" s="1">
         <v>1</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
       <c r="AJ4" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
@@ -4031,61 +5115,61 @@
     </row>
     <row r="5" spans="2:46">
       <c r="B5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="I5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
       <c r="T5" s="1">
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
       <c r="AJ5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:46">
@@ -4097,20 +5181,20 @@
       <c r="G6" s="3"/>
       <c r="S6" s="3"/>
       <c r="AJ6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AK6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:46">
       <c r="AJ7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:46">
       <c r="AJ8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:46">
@@ -4154,7 +5238,15 @@
       <c r="AT13"/>
     </row>
     <row r="14" spans="2:46">
-      <c r="AJ14" s="8"/>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="AK14" s="8"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
@@ -4163,8 +5255,112 @@
       <c r="AP14" s="8"/>
     </row>
     <row r="15" spans="2:46">
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0</v>
+      </c>
+      <c r="J15" s="35">
+        <v>0</v>
+      </c>
+      <c r="K15" s="35">
+        <v>0</v>
+      </c>
+      <c r="L15" s="35">
+        <v>0</v>
+      </c>
+      <c r="M15" s="35">
+        <v>0</v>
+      </c>
+      <c r="N15" s="35">
+        <v>0</v>
+      </c>
+      <c r="O15" s="35">
+        <v>0</v>
+      </c>
+      <c r="P15" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="35">
+        <v>0</v>
+      </c>
+      <c r="R15" s="35">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="35">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="35">
+        <v>0</v>
+      </c>
+      <c r="X15" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ15" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK15" s="28"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
@@ -4172,7 +5368,7 @@
       <c r="AP15" s="8"/>
     </row>
     <row r="16" spans="2:46">
-      <c r="AJ16" s="8"/>
+      <c r="AJ16" s="9"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>

--- a/PDFs/Instrucciones implementadas.xlsx
+++ b/PDFs/Instrucciones implementadas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -411,9 +411,6 @@
     <t>1111001010100001</t>
   </si>
   <si>
-    <t>1111001000000000</t>
-  </si>
-  <si>
     <t>1111001011000000</t>
   </si>
   <si>
@@ -439,6 +436,9 @@
   </si>
   <si>
     <t>1001000110000000</t>
+  </si>
+  <si>
+    <t>1111001001000000</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,21 +697,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -729,6 +720,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1028,7 +1042,7 @@
   <dimension ref="B2:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="M6" sqref="M6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1160,98 +1174,98 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
     </row>
     <row r="4" spans="2:34">
-      <c r="B4" t="s">
+      <c r="B4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="1" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22" t="s">
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="1" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22" t="s">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22" t="s">
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
     </row>
     <row r="5" spans="2:34">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1267,48 +1281,48 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22" t="s">
+      <c r="N5" s="37"/>
+      <c r="O5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22" t="s">
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22" t="s">
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22" t="s">
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
     </row>
     <row r="6" spans="2:34">
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1324,38 +1338,38 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22" t="s">
+      <c r="N6" s="37"/>
+      <c r="O6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22" t="s">
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22" t="s">
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22" t="s">
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
     </row>
     <row r="7" spans="2:34">
       <c r="T7" s="3"/>
@@ -1397,88 +1411,88 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
     </row>
     <row r="9" spans="2:34">
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
       <c r="S9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22" t="s">
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22" t="s">
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22" t="s">
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22" t="s">
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="4" t="s">
@@ -1505,98 +1519,98 @@
       <c r="I11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
     </row>
     <row r="12" spans="2:34">
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22" t="s">
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22" t="s">
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="1">
         <v>0</v>
       </c>
@@ -1606,42 +1620,42 @@
       <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="1">
         <v>1</v>
       </c>
@@ -1651,26 +1665,26 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="4" t="s">
@@ -1691,61 +1705,61 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
       <c r="S16" s="5">
         <v>1</v>
       </c>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
     </row>
     <row r="17" spans="2:34">
       <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
       <c r="T17" s="1">
         <v>0</v>
       </c>
@@ -1758,47 +1772,47 @@
       <c r="W17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X17" s="22" t="s">
+      <c r="X17" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
     </row>
     <row r="18" spans="2:34">
       <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22" t="s">
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
       <c r="T18" s="1">
         <v>0</v>
       </c>
@@ -1811,38 +1825,34 @@
       <c r="W18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="22" t="s">
+      <c r="X18" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="T3:AH3"/>
-    <mergeCell ref="C4:G6"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:R5"/>
+  <mergeCells count="49">
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="W5:Z5"/>
     <mergeCell ref="AA5:AH5"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:R6"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="T3:AH3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AH4"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="W6:Z6"/>
     <mergeCell ref="AA6:AH6"/>
@@ -1859,22 +1869,27 @@
     <mergeCell ref="X18:AH18"/>
     <mergeCell ref="J11:AH11"/>
     <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C12:I14"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="H16:R16"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S13:V14"/>
+    <mergeCell ref="W13:AH14"/>
+    <mergeCell ref="W9:Z9"/>
     <mergeCell ref="O12:R12"/>
     <mergeCell ref="S12:V12"/>
     <mergeCell ref="W12:AH12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="O13:R14"/>
-    <mergeCell ref="H16:R16"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S13:V14"/>
-    <mergeCell ref="W13:AH14"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:M9"/>
-    <mergeCell ref="C12:I14"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1885,7 +1900,7 @@
   <dimension ref="B2:AV42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6:AH6"/>
+      <selection activeCell="C16" sqref="C16:AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2030,88 +2045,88 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
     </row>
     <row r="4" spans="2:37">
-      <c r="B4" t="s">
+      <c r="B4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="1" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22" t="s">
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="1" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22" t="s">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22" t="s">
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
       <c r="AJ4" t="s">
         <v>4</v>
       </c>
@@ -2123,11 +2138,11 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2143,38 +2158,38 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22" t="s">
+      <c r="N5" s="37"/>
+      <c r="O5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22" t="s">
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22" t="s">
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22" t="s">
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
       <c r="AK5" t="s">
         <v>15</v>
       </c>
@@ -2183,11 +2198,11 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2203,38 +2218,38 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22" t="s">
+      <c r="N6" s="37"/>
+      <c r="O6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22" t="s">
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22" t="s">
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22" t="s">
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
       <c r="AK6" t="s">
         <v>16</v>
       </c>
@@ -2336,37 +2351,37 @@
       <c r="G13" s="6">
         <v>0</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
       <c r="S13" s="6">
         <v>0</v>
       </c>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="35"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="34"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="29"/>
     </row>
     <row r="14" spans="2:37">
       <c r="C14" s="2"/>
@@ -2374,8 +2389,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2401,8 +2416,8 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="34"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="29"/>
     </row>
     <row r="15" spans="2:37">
       <c r="B15" t="s">
@@ -2423,10 +2438,10 @@
       <c r="G15" s="6">
         <v>0</v>
       </c>
-      <c r="H15" s="35">
-        <v>0</v>
-      </c>
-      <c r="I15" s="36">
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31">
         <v>1</v>
       </c>
       <c r="J15" s="2">
@@ -2444,70 +2459,70 @@
       <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="32">
-        <v>0</v>
-      </c>
-      <c r="P15" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>0</v>
-      </c>
-      <c r="R15" s="32">
+      <c r="O15" s="27">
+        <v>0</v>
+      </c>
+      <c r="P15" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>0</v>
+      </c>
+      <c r="R15" s="27">
         <v>1</v>
       </c>
       <c r="S15" s="6">
         <v>0</v>
       </c>
-      <c r="T15" s="35">
-        <v>0</v>
-      </c>
-      <c r="U15" s="35">
-        <v>0</v>
-      </c>
-      <c r="V15" s="35">
-        <v>0</v>
-      </c>
-      <c r="W15" s="30">
-        <v>0</v>
-      </c>
-      <c r="X15" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="33" t="s">
+      <c r="T15" s="30">
+        <v>0</v>
+      </c>
+      <c r="U15" s="30">
+        <v>0</v>
+      </c>
+      <c r="V15" s="30">
+        <v>0</v>
+      </c>
+      <c r="W15" s="25">
+        <v>0</v>
+      </c>
+      <c r="X15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="AJ15" s="34" t="s">
+      <c r="AJ15" s="29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2530,10 +2545,10 @@
       <c r="G16" s="6">
         <v>0</v>
       </c>
-      <c r="H16" s="35">
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
+      <c r="H16" s="30">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
         <v>1</v>
       </c>
       <c r="J16" s="2">
@@ -2551,215 +2566,215 @@
       <c r="N16" s="2">
         <v>0</v>
       </c>
-      <c r="O16" s="32">
-        <v>0</v>
-      </c>
-      <c r="P16" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>0</v>
-      </c>
-      <c r="R16" s="32">
+      <c r="O16" s="27">
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>0</v>
+      </c>
+      <c r="R16" s="27">
         <v>1</v>
       </c>
       <c r="S16" s="6">
         <v>0</v>
       </c>
-      <c r="T16" s="35">
-        <v>0</v>
-      </c>
-      <c r="U16" s="35">
-        <v>0</v>
-      </c>
-      <c r="V16" s="35">
-        <v>0</v>
-      </c>
-      <c r="W16" s="30">
-        <v>0</v>
-      </c>
-      <c r="X16" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="35">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="33" t="s">
+      <c r="T16" s="30">
+        <v>0</v>
+      </c>
+      <c r="U16" s="30">
+        <v>0</v>
+      </c>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
+      <c r="W16" s="25">
+        <v>0</v>
+      </c>
+      <c r="X16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="AJ16" s="34" t="s">
-        <v>126</v>
+      <c r="AJ16" s="29" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:42">
-      <c r="B17" s="37"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="29"/>
     </row>
     <row r="18" spans="2:42">
       <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0</v>
+      </c>
+      <c r="I18" s="31">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="30">
+        <v>0</v>
+      </c>
+      <c r="P18" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>0</v>
+      </c>
+      <c r="R18" s="30">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="30">
+        <v>0</v>
+      </c>
+      <c r="U18" s="30">
+        <v>0</v>
+      </c>
+      <c r="V18" s="30">
+        <v>0</v>
+      </c>
+      <c r="W18" s="25">
+        <v>0</v>
+      </c>
+      <c r="X18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ18" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="36">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="35">
-        <v>0</v>
-      </c>
-      <c r="P18" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="35">
-        <v>0</v>
-      </c>
-      <c r="R18" s="35">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="35">
-        <v>0</v>
-      </c>
-      <c r="U18" s="35">
-        <v>0</v>
-      </c>
-      <c r="V18" s="35">
-        <v>0</v>
-      </c>
-      <c r="W18" s="30">
-        <v>0</v>
-      </c>
-      <c r="X18" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="35">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="35">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ18" s="34" t="s">
-        <v>125</v>
       </c>
       <c r="AK18" s="8"/>
     </row>
@@ -2782,10 +2797,10 @@
       <c r="G19" s="6">
         <v>0</v>
       </c>
-      <c r="H19" s="35">
-        <v>0</v>
-      </c>
-      <c r="I19" s="36">
+      <c r="H19" s="30">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
         <v>1</v>
       </c>
       <c r="J19" s="2">
@@ -2803,73 +2818,73 @@
       <c r="N19" s="2">
         <v>0</v>
       </c>
-      <c r="O19" s="35">
-        <v>0</v>
-      </c>
-      <c r="P19" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="35">
-        <v>0</v>
-      </c>
-      <c r="R19" s="35">
+      <c r="O19" s="30">
+        <v>0</v>
+      </c>
+      <c r="P19" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>0</v>
+      </c>
+      <c r="R19" s="30">
         <v>0</v>
       </c>
       <c r="S19" s="6">
         <v>0</v>
       </c>
-      <c r="T19" s="35">
-        <v>0</v>
-      </c>
-      <c r="U19" s="35">
-        <v>0</v>
-      </c>
-      <c r="V19" s="35">
-        <v>0</v>
-      </c>
-      <c r="W19" s="30">
-        <v>0</v>
-      </c>
-      <c r="X19" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="35">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="35">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="35">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="35">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="33" t="s">
+      <c r="T19" s="30">
+        <v>0</v>
+      </c>
+      <c r="U19" s="30">
+        <v>0</v>
+      </c>
+      <c r="V19" s="30">
+        <v>0</v>
+      </c>
+      <c r="W19" s="25">
+        <v>0</v>
+      </c>
+      <c r="X19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ19" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="AJ19" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK19" s="34"/>
+      <c r="AK19" s="29"/>
     </row>
     <row r="20" spans="2:42">
       <c r="O20" s="2"/>
@@ -2882,7 +2897,7 @@
     <row r="22" spans="2:42">
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="V22" s="38"/>
+      <c r="V22" s="33"/>
     </row>
     <row r="23" spans="2:42" ht="15.75" thickBot="1">
       <c r="O23" s="2"/>
@@ -2891,15 +2906,15 @@
     <row r="24" spans="2:42" ht="15.75" thickBot="1">
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="AJ24" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="26"/>
+      <c r="AJ24" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="41"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="42"/>
     </row>
     <row r="25" spans="2:42" ht="15.75" thickBot="1">
       <c r="O25" s="2"/>
@@ -3084,13 +3099,13 @@
       <c r="AO33" s="1"/>
     </row>
     <row r="34" spans="36:41" ht="15.75" thickBot="1">
-      <c r="AJ34" s="24" t="s">
+      <c r="AJ34" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="25"/>
-      <c r="AM34" s="25"/>
-      <c r="AN34" s="26"/>
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="41"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="42"/>
       <c r="AO34" s="1"/>
     </row>
     <row r="35" spans="36:41" ht="15.75" thickBot="1">
@@ -3154,13 +3169,13 @@
       <c r="AO38" s="1"/>
     </row>
     <row r="39" spans="36:41" ht="15.75" thickBot="1">
-      <c r="AJ39" s="24" t="s">
+      <c r="AJ39" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="25"/>
-      <c r="AN39" s="26"/>
+      <c r="AK39" s="41"/>
+      <c r="AL39" s="41"/>
+      <c r="AM39" s="41"/>
+      <c r="AN39" s="42"/>
       <c r="AO39" s="1"/>
     </row>
     <row r="40" spans="36:41" ht="15.75" thickBot="1">
@@ -3218,7 +3233,10 @@
       <c r="AO42" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="AJ39:AN39"/>
     <mergeCell ref="H3:R3"/>
     <mergeCell ref="T3:AH3"/>
@@ -3227,8 +3245,7 @@
     <mergeCell ref="W4:Z4"/>
     <mergeCell ref="AA4:AH4"/>
     <mergeCell ref="AJ34:AN34"/>
-    <mergeCell ref="C4:G6"/>
-    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="AJ24:AP24"/>
@@ -3240,7 +3257,6 @@
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="W6:Z6"/>
     <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="J4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3251,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AT28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3397,88 +3413,88 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
       <c r="S4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22" t="s">
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22" t="s">
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22" t="s">
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22" t="s">
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
       <c r="AJ4" t="s">
         <v>93</v>
       </c>
@@ -3529,15 +3545,15 @@
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ10" s="24" t="s">
+      <c r="AJ10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="26"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="42"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1">
       <c r="AJ11" s="17" t="s">
@@ -3787,7 +3803,6 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AJ21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
@@ -3825,7 +3840,6 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AJ22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
@@ -3836,7 +3850,6 @@
       <c r="AT22"/>
     </row>
     <row r="23" spans="3:46">
-      <c r="AJ23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
@@ -3847,7 +3860,6 @@
       <c r="AT23"/>
     </row>
     <row r="24" spans="3:46">
-      <c r="AJ24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
@@ -3858,7 +3870,6 @@
       <c r="AT24"/>
     </row>
     <row r="25" spans="3:46">
-      <c r="AJ25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
@@ -3869,7 +3880,6 @@
       <c r="AT25"/>
     </row>
     <row r="26" spans="3:46">
-      <c r="AJ26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
@@ -3880,7 +3890,6 @@
       <c r="AT26"/>
     </row>
     <row r="27" spans="3:46">
-      <c r="AJ27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
@@ -3902,9 +3911,10 @@
       <c r="AT28"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="AJ10:AP10"/>
-    <mergeCell ref="J3:AH3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="T4:V4"/>
@@ -3912,8 +3922,8 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3924,7 +3934,7 @@
   <dimension ref="B2:AT28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4075,82 +4085,82 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="22"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22" t="s">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22" t="s">
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
       <c r="AJ4" t="s">
         <v>96</v>
       </c>
@@ -4159,48 +4169,48 @@
       <c r="B5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22" t="s">
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22" t="s">
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
       <c r="AJ5" t="s">
         <v>63</v>
       </c>
@@ -4209,48 +4219,48 @@
       <c r="B6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22" t="s">
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22" t="s">
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
       <c r="AJ6" t="s">
         <v>64</v>
       </c>
@@ -4277,15 +4287,15 @@
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ10" s="24" t="s">
+      <c r="AJ10" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="26"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="42"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1">
       <c r="AJ11" s="17" t="s">
@@ -4450,74 +4460,74 @@
       <c r="N16" s="1">
         <v>1</v>
       </c>
-      <c r="O16" s="31">
-        <v>0</v>
-      </c>
-      <c r="P16" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>0</v>
-      </c>
-      <c r="R16" s="32">
-        <v>1</v>
-      </c>
-      <c r="S16" s="30">
-        <v>0</v>
-      </c>
-      <c r="T16" s="30">
-        <v>0</v>
-      </c>
-      <c r="U16" s="30">
-        <v>1</v>
-      </c>
-      <c r="V16" s="30">
-        <v>0</v>
-      </c>
-      <c r="W16" s="35">
-        <v>0</v>
-      </c>
-      <c r="X16" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="33" t="s">
+      <c r="O16" s="26">
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>0</v>
+      </c>
+      <c r="R16" s="27">
+        <v>1</v>
+      </c>
+      <c r="S16" s="25">
+        <v>0</v>
+      </c>
+      <c r="T16" s="25">
+        <v>0</v>
+      </c>
+      <c r="U16" s="25">
+        <v>1</v>
+      </c>
+      <c r="V16" s="25">
+        <v>0</v>
+      </c>
+      <c r="W16" s="30">
+        <v>0</v>
+      </c>
+      <c r="X16" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="AJ16" s="34" t="s">
+      <c r="AJ16" s="29" t="s">
         <v>108</v>
       </c>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="27" t="s">
+      <c r="AL16" s="22" t="s">
         <v>97</v>
       </c>
       <c r="AM16" s="9"/>
@@ -4526,10 +4536,10 @@
       <c r="AP16" s="8"/>
     </row>
     <row r="17" spans="2:46">
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="34"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="29"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="27" t="s">
+      <c r="AL17" s="22" t="s">
         <v>98</v>
       </c>
       <c r="AM17" s="9"/>
@@ -4577,74 +4587,74 @@
       <c r="N18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="31">
-        <v>0</v>
-      </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>1</v>
-      </c>
-      <c r="R18" s="32">
-        <v>0</v>
-      </c>
-      <c r="S18" s="30">
-        <v>0</v>
-      </c>
-      <c r="T18" s="30">
-        <v>0</v>
-      </c>
-      <c r="U18" s="30">
-        <v>1</v>
-      </c>
-      <c r="V18" s="30">
-        <v>1</v>
-      </c>
-      <c r="W18" s="35">
-        <v>0</v>
-      </c>
-      <c r="X18" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="35">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="33" t="s">
+      <c r="O18" s="26">
+        <v>0</v>
+      </c>
+      <c r="P18" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>1</v>
+      </c>
+      <c r="R18" s="27">
+        <v>0</v>
+      </c>
+      <c r="S18" s="25">
+        <v>0</v>
+      </c>
+      <c r="T18" s="25">
+        <v>0</v>
+      </c>
+      <c r="U18" s="25">
+        <v>1</v>
+      </c>
+      <c r="V18" s="25">
+        <v>1</v>
+      </c>
+      <c r="W18" s="30">
+        <v>0</v>
+      </c>
+      <c r="X18" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="AJ18" s="34" t="s">
+      <c r="AJ18" s="29" t="s">
         <v>110</v>
       </c>
       <c r="AK18" s="8"/>
-      <c r="AL18" s="27" t="s">
+      <c r="AL18" s="22" t="s">
         <v>99</v>
       </c>
       <c r="AM18" s="9"/>
@@ -4653,15 +4663,15 @@
       <c r="AP18" s="8"/>
     </row>
     <row r="19" spans="2:46">
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="34"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="29"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
     </row>
     <row r="20" spans="2:46">
       <c r="B20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4692,9 +4702,9 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="34"/>
-      <c r="AL20" s="27" t="s">
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="29"/>
+      <c r="AL20" s="22" t="s">
         <v>101</v>
       </c>
       <c r="AM20" s="1"/>
@@ -4707,7 +4717,7 @@
     </row>
     <row r="21" spans="2:46">
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -4735,9 +4745,9 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="34"/>
-      <c r="AL21" s="27" t="s">
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="29"/>
+      <c r="AL21" s="22" t="s">
         <v>102</v>
       </c>
       <c r="AM21" s="1"/>
@@ -4776,8 +4786,8 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="34"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="29"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
@@ -4788,8 +4798,8 @@
       <c r="AT22"/>
     </row>
     <row r="23" spans="2:46">
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="34"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="29"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
@@ -4800,8 +4810,8 @@
       <c r="AT23"/>
     </row>
     <row r="24" spans="2:46">
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="34"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="29"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
@@ -4812,8 +4822,8 @@
       <c r="AT24"/>
     </row>
     <row r="25" spans="2:46">
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="34"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="29"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
@@ -4824,8 +4834,8 @@
       <c r="AT25"/>
     </row>
     <row r="26" spans="2:46">
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="34"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="29"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
@@ -4836,8 +4846,8 @@
       <c r="AT26"/>
     </row>
     <row r="27" spans="2:46">
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="34"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="29"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
@@ -4859,8 +4869,7 @@
       <c r="AT28"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="J3:AH3"/>
+  <mergeCells count="16">
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="S5:V5"/>
@@ -4870,11 +4879,13 @@
     <mergeCell ref="W6:AH6"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S3:AH3"/>
     <mergeCell ref="AJ10:AP10"/>
     <mergeCell ref="W4:AH4"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4885,7 +4896,7 @@
   <dimension ref="B2:AT28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+      <selection activeCell="I5" sqref="I5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5026,61 +5037,61 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
       <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
       <c r="T4" s="1">
         <v>0</v>
       </c>
@@ -5093,19 +5104,19 @@
       <c r="W4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
       <c r="AJ4" s="3" t="s">
         <v>100</v>
       </c>
@@ -5117,29 +5128,29 @@
       <c r="B5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
       <c r="T5" s="1">
         <v>0</v>
       </c>
@@ -5152,19 +5163,19 @@
       <c r="W5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
       <c r="AJ5" t="s">
         <v>85</v>
       </c>
@@ -5256,111 +5267,111 @@
     </row>
     <row r="15" spans="2:46">
       <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0</v>
+      </c>
+      <c r="K15" s="30">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30">
+        <v>0</v>
+      </c>
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="30">
+        <v>0</v>
+      </c>
+      <c r="O15" s="30">
+        <v>0</v>
+      </c>
+      <c r="P15" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>0</v>
+      </c>
+      <c r="R15" s="30">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="30">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="30">
+        <v>0</v>
+      </c>
+      <c r="X15" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ15" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35">
-        <v>0</v>
-      </c>
-      <c r="J15" s="35">
-        <v>0</v>
-      </c>
-      <c r="K15" s="35">
-        <v>0</v>
-      </c>
-      <c r="L15" s="35">
-        <v>0</v>
-      </c>
-      <c r="M15" s="35">
-        <v>0</v>
-      </c>
-      <c r="N15" s="35">
-        <v>0</v>
-      </c>
-      <c r="O15" s="35">
-        <v>0</v>
-      </c>
-      <c r="P15" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="35">
-        <v>0</v>
-      </c>
-      <c r="R15" s="35">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>1</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="35">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>1</v>
-      </c>
-      <c r="W15" s="35">
-        <v>0</v>
-      </c>
-      <c r="X15" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="35">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="35">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ15" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK15" s="28"/>
+      <c r="AK15" s="23"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
@@ -5500,16 +5511,17 @@
       <c r="AT28"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="X5:AH5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="C4:G5"/>
     <mergeCell ref="H3:R3"/>
     <mergeCell ref="T3:AH3"/>
     <mergeCell ref="I4:R4"/>
     <mergeCell ref="X4:AH4"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:R5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PDFs/Instrucciones implementadas.xlsx
+++ b/PDFs/Instrucciones implementadas.xlsx
@@ -730,10 +730,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,88 +1174,88 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
     </row>
     <row r="4" spans="2:34">
       <c r="B4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="36">
         <v>0</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38" t="s">
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38" t="s">
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
     </row>
     <row r="5" spans="2:34">
       <c r="B5" t="s">
@@ -1411,31 +1411,31 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
     </row>
     <row r="9" spans="2:34">
       <c r="B9" t="s">
@@ -1519,31 +1519,31 @@
       <c r="I11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
     </row>
     <row r="12" spans="2:34">
       <c r="B12" t="s">
@@ -1705,35 +1705,35 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="5">
         <v>1</v>
       </c>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="38"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="38"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
     </row>
     <row r="17" spans="2:34">
       <c r="B17" t="s">
@@ -1841,34 +1841,14 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="T3:AH3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="X17:AH17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="J8:AH8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="X18:AH18"/>
-    <mergeCell ref="J11:AH11"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:R5"/>
     <mergeCell ref="C12:I14"/>
     <mergeCell ref="T9:V9"/>
     <mergeCell ref="H16:R16"/>
@@ -1882,14 +1862,34 @@
     <mergeCell ref="W12:AH12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="O13:R14"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="J8:AH8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="X18:AH18"/>
+    <mergeCell ref="J11:AH11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="X17:AH17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="T3:AH3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AA6:AH6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2045,88 +2045,88 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
     </row>
     <row r="4" spans="2:37">
       <c r="B4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="36">
         <v>0</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
       <c r="N4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
       <c r="S4" s="36"/>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38" t="s">
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38" t="s">
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
       <c r="AJ4" t="s">
         <v>4</v>
       </c>
@@ -3234,6 +3234,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AA6:AH6"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="C5:G6"/>
     <mergeCell ref="C4:G4"/>
@@ -3250,13 +3257,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="AJ24:AP24"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3413,31 +3413,31 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
@@ -3912,6 +3912,8 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S3:AH3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="AJ10:AP10"/>
@@ -3922,8 +3924,6 @@
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE4:AH4"/>
     <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="S3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4085,31 +4085,31 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
@@ -4870,22 +4870,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="AJ10:AP10"/>
+    <mergeCell ref="W4:AH4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C4:I4"/>
     <mergeCell ref="W5:AH5"/>
     <mergeCell ref="W6:AH6"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="J3:R3"/>
     <mergeCell ref="S3:AH3"/>
-    <mergeCell ref="AJ10:AP10"/>
-    <mergeCell ref="W4:AH4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="S6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4896,7 +4896,7 @@
   <dimension ref="B2:AT28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L5"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5037,35 +5037,35 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
       <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" t="s">
@@ -5511,7 +5511,8 @@
       <c r="AT28"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="C4:G5"/>
     <mergeCell ref="X5:AH5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="H3:R3"/>
@@ -5520,8 +5521,6 @@
     <mergeCell ref="X4:AH4"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:R5"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PDFs/Instrucciones implementadas.xlsx
+++ b/PDFs/Instrucciones implementadas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Data processing (Non-Immediate)" sheetId="2" r:id="rId3"/>
     <sheet name="Load and store single data" sheetId="3" r:id="rId4"/>
     <sheet name="Branches" sheetId="4" r:id="rId5"/>
+    <sheet name="Programa" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="182">
   <si>
     <t>Instruction</t>
   </si>
@@ -384,15 +385,9 @@
     <t>1111100010000010</t>
   </si>
   <si>
-    <t>0011000000000010</t>
-  </si>
-  <si>
     <t>LDR R1, R2, #0</t>
   </si>
   <si>
-    <t>STR R2, R3, #2</t>
-  </si>
-  <si>
     <t>ADD R1, R1, #4</t>
   </si>
   <si>
@@ -439,6 +434,171 @@
   </si>
   <si>
     <t>1111001001000000</t>
+  </si>
+  <si>
+    <t>SUB R2, R2, #8</t>
+  </si>
+  <si>
+    <t>1111001010100010</t>
+  </si>
+  <si>
+    <t>0000001000001000</t>
+  </si>
+  <si>
+    <t>1111011111111111</t>
+  </si>
+  <si>
+    <t>1011111111110100</t>
+  </si>
+  <si>
+    <t>B &lt;-24&gt;</t>
+  </si>
+  <si>
+    <t>6 Instrucciones hacia atrás</t>
+  </si>
+  <si>
+    <t>Programa</t>
+  </si>
+  <si>
+    <t>NULA</t>
+  </si>
+  <si>
+    <t>Registro A</t>
+  </si>
+  <si>
+    <t>Registro B</t>
+  </si>
+  <si>
+    <t>Registro W</t>
+  </si>
+  <si>
+    <t>Entero</t>
+  </si>
+  <si>
+    <t>Señales de control</t>
+  </si>
+  <si>
+    <t>Etapa Decodificación</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>STR R2, R3, #0</t>
+  </si>
+  <si>
+    <t>0011000000000000</t>
+  </si>
+  <si>
+    <t>MOV R1, #24</t>
+  </si>
+  <si>
+    <t>MOVT R1, #0</t>
+  </si>
+  <si>
+    <t>Dos instrucciones para mover "24" a R1</t>
+  </si>
+  <si>
+    <t>Dos instrucciones para mover "31" a R2</t>
+  </si>
+  <si>
+    <t>MOV R2, #31</t>
+  </si>
+  <si>
+    <t>MOVT R2, #0</t>
+  </si>
+  <si>
+    <t>ADD R3, R1, R2</t>
+  </si>
+  <si>
+    <t>SUB R4, R2, R1</t>
+  </si>
+  <si>
+    <t>B #-24</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intruccion </t>
+  </si>
+  <si>
+    <t>01000000</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00011000</t>
+  </si>
+  <si>
+    <t>11110010</t>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00011111</t>
+  </si>
+  <si>
+    <t>11101011</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>10100010</t>
+  </si>
+  <si>
+    <t>00000100</t>
+  </si>
+  <si>
+    <t>11110111</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>10111111</t>
+  </si>
+  <si>
+    <t>11110100</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>Saltar 6 inst atrás</t>
+  </si>
+  <si>
+    <t>Etapa Ejecucion</t>
   </si>
 </sst>
 </file>
@@ -470,7 +630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,8 +667,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -647,11 +819,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,9 +922,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -733,7 +933,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -744,6 +950,109 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,7 +1351,7 @@
   <dimension ref="B2:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:N6"/>
+      <selection activeCell="B2" sqref="B2:AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1174,38 +1483,38 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
     </row>
     <row r="4" spans="2:34">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="39"/>
@@ -1213,10 +1522,10 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>0</v>
       </c>
       <c r="J4" s="39" t="s">
@@ -1225,7 +1534,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="O4" s="39" t="s">
@@ -1234,7 +1543,7 @@
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="39"/>
-      <c r="S4" s="35"/>
+      <c r="S4" s="34"/>
       <c r="T4" s="39" t="s">
         <v>9</v>
       </c>
@@ -1261,11 +1570,11 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1281,48 +1590,48 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37" t="s">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37" t="s">
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37" t="s">
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
     </row>
     <row r="6" spans="2:34">
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1338,38 +1647,38 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37" t="s">
+      <c r="N6" s="38"/>
+      <c r="O6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37" t="s">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37" t="s">
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
     </row>
     <row r="7" spans="2:34">
       <c r="T7" s="3"/>
@@ -1411,88 +1720,88 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
     </row>
     <row r="9" spans="2:34">
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37" t="s">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
       <c r="S9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37" t="s">
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37" t="s">
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37" t="s">
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37" t="s">
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="4" t="s">
@@ -1519,98 +1828,98 @@
       <c r="I11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
     </row>
     <row r="12" spans="2:34">
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="37"/>
+      <c r="M12" s="38"/>
       <c r="N12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37" t="s">
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37" t="s">
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="37"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="1">
         <v>0</v>
       </c>
@@ -1620,42 +1929,42 @@
       <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="1">
         <v>1</v>
       </c>
@@ -1665,26 +1974,26 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="4" t="s">
@@ -1705,61 +2014,61 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
       <c r="S16" s="5">
         <v>1</v>
       </c>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
     </row>
     <row r="17" spans="2:34">
       <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
       <c r="T17" s="1">
         <v>0</v>
       </c>
@@ -1772,47 +2081,47 @@
       <c r="W17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X17" s="37" t="s">
+      <c r="X17" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
     </row>
     <row r="18" spans="2:34">
       <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37" t="s">
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
       <c r="T18" s="1">
         <v>0</v>
       </c>
@@ -1825,30 +2134,39 @@
       <c r="W18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="37" t="s">
+      <c r="X18" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="T3:AH3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="X18:AH18"/>
+    <mergeCell ref="J11:AH11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="X17:AH17"/>
+    <mergeCell ref="I18:L18"/>
     <mergeCell ref="C12:I14"/>
     <mergeCell ref="T9:V9"/>
     <mergeCell ref="H16:R16"/>
@@ -1862,26 +2180,18 @@
     <mergeCell ref="W12:AH12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="O13:R14"/>
-    <mergeCell ref="J8:AH8"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="X18:AH18"/>
-    <mergeCell ref="J11:AH11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="X17:AH17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="T3:AH3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="J8:AH8"/>
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="W5:Z5"/>
     <mergeCell ref="AA5:AH5"/>
@@ -1889,7 +2199,6 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1897,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AV42"/>
+  <dimension ref="B2:AW43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:AH16"/>
+      <selection activeCell="B23" sqref="B23:AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1922,7 +2231,7 @@
     <col min="48" max="48" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37">
+    <row r="2" spans="2:44">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2026,7 +2335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:37">
+    <row r="3" spans="2:44">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2045,38 +2354,38 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-    </row>
-    <row r="4" spans="2:37">
-      <c r="B4" s="34" t="s">
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+    </row>
+    <row r="4" spans="2:44">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="39"/>
@@ -2084,10 +2393,10 @@
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>0</v>
       </c>
       <c r="J4" s="39" t="s">
@@ -2096,7 +2405,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="O4" s="39" t="s">
@@ -2105,7 +2414,7 @@
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="39"/>
-      <c r="S4" s="36"/>
+      <c r="S4" s="35"/>
       <c r="T4" s="39" t="s">
         <v>9</v>
       </c>
@@ -2134,15 +2443,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:37">
+    <row r="5" spans="2:44">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2158,51 +2467,51 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37" t="s">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37" t="s">
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37" t="s">
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
       <c r="AK5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:37">
+    <row r="6" spans="2:44">
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2218,43 +2527,43 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37" t="s">
+      <c r="N6" s="38"/>
+      <c r="O6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37" t="s">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37" t="s">
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37" t="s">
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
       <c r="AK6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:37">
+    <row r="7" spans="2:44">
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="T7" s="3"/>
@@ -2276,23 +2585,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="2:37">
+    <row r="8" spans="2:44">
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:37">
+    <row r="9" spans="2:44">
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:37">
+    <row r="10" spans="2:44">
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:37">
+    <row r="11" spans="2:44">
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="2:37">
+    <row r="12" spans="2:44">
       <c r="B12" t="s">
         <v>103</v>
       </c>
@@ -2335,7 +2644,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:37">
+    <row r="13" spans="2:44" ht="15.75" thickBot="1">
       <c r="C13" s="6">
         <v>1</v>
       </c>
@@ -2383,7 +2692,7 @@
       <c r="AI13" s="28"/>
       <c r="AJ13" s="29"/>
     </row>
-    <row r="14" spans="2:37">
+    <row r="14" spans="2:44" ht="15.75" thickBot="1">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2418,541 +2727,1200 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="29"/>
-    </row>
-    <row r="15" spans="2:37">
+      <c r="AL14" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="43"/>
+    </row>
+    <row r="15" spans="2:44" ht="15.75" thickBot="1">
       <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="27">
+        <v>0</v>
+      </c>
+      <c r="P15" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>0</v>
+      </c>
+      <c r="R15" s="27">
+        <v>1</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="30">
+        <v>0</v>
+      </c>
+      <c r="U15" s="30">
+        <v>0</v>
+      </c>
+      <c r="V15" s="30">
+        <v>0</v>
+      </c>
+      <c r="W15" s="25">
+        <v>0</v>
+      </c>
+      <c r="X15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ15" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL15" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR15" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:44">
+      <c r="B16" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0</v>
-      </c>
-      <c r="I15" s="31">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="27">
-        <v>0</v>
-      </c>
-      <c r="P15" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>0</v>
-      </c>
-      <c r="R15" s="27">
-        <v>1</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="30">
-        <v>0</v>
-      </c>
-      <c r="U15" s="30">
-        <v>0</v>
-      </c>
-      <c r="V15" s="30">
-        <v>0</v>
-      </c>
-      <c r="W15" s="25">
-        <v>0</v>
-      </c>
-      <c r="X15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="30">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="30">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="30">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="28" t="s">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="27">
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>0</v>
+      </c>
+      <c r="R16" s="27">
+        <v>1</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="30">
+        <v>0</v>
+      </c>
+      <c r="U16" s="30">
+        <v>0</v>
+      </c>
+      <c r="V16" s="30">
+        <v>0</v>
+      </c>
+      <c r="W16" s="25">
+        <v>0</v>
+      </c>
+      <c r="X16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="AJ15" s="29" t="s">
+      <c r="AJ16" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="10"/>
+    </row>
+    <row r="17" spans="2:49">
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="37">
+        <v>1</v>
+      </c>
+      <c r="D17" s="37">
+        <v>1</v>
+      </c>
+      <c r="E17" s="37">
+        <v>1</v>
+      </c>
+      <c r="F17" s="37">
+        <v>1</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1</v>
+      </c>
+      <c r="J17" s="36">
+        <v>0</v>
+      </c>
+      <c r="K17" s="36">
+        <v>1</v>
+      </c>
+      <c r="L17" s="36">
+        <v>0</v>
+      </c>
+      <c r="M17" s="36">
+        <v>1</v>
+      </c>
+      <c r="N17" s="36">
+        <v>0</v>
+      </c>
+      <c r="O17" s="27">
+        <v>0</v>
+      </c>
+      <c r="P17" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>1</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0</v>
+      </c>
+      <c r="S17" s="37">
+        <v>0</v>
+      </c>
+      <c r="T17" s="30">
+        <v>0</v>
+      </c>
+      <c r="U17" s="30">
+        <v>0</v>
+      </c>
+      <c r="V17" s="30">
+        <v>0</v>
+      </c>
+      <c r="W17" s="25">
+        <v>0</v>
+      </c>
+      <c r="X17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ17" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+    </row>
+    <row r="18" spans="2:49">
+      <c r="B18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="29"/>
+      <c r="AL18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:49">
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="30">
+        <v>0</v>
+      </c>
+      <c r="P19" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>0</v>
+      </c>
+      <c r="R19" s="30">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="30">
+        <v>0</v>
+      </c>
+      <c r="U19" s="30">
+        <v>0</v>
+      </c>
+      <c r="V19" s="30">
+        <v>0</v>
+      </c>
+      <c r="W19" s="25">
+        <v>0</v>
+      </c>
+      <c r="X19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ19" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="10"/>
+    </row>
+    <row r="20" spans="2:49">
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="30">
+        <v>0</v>
+      </c>
+      <c r="I20" s="31">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="30">
+        <v>0</v>
+      </c>
+      <c r="P20" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>0</v>
+      </c>
+      <c r="R20" s="30">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="30">
+        <v>0</v>
+      </c>
+      <c r="U20" s="30">
+        <v>0</v>
+      </c>
+      <c r="V20" s="30">
+        <v>0</v>
+      </c>
+      <c r="W20" s="25">
+        <v>0</v>
+      </c>
+      <c r="X20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="16" spans="2:37">
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30">
-        <v>0</v>
-      </c>
-      <c r="I16" s="31">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="27">
-        <v>0</v>
-      </c>
-      <c r="P16" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="27">
-        <v>0</v>
-      </c>
-      <c r="R16" s="27">
-        <v>1</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16" s="30">
-        <v>0</v>
-      </c>
-      <c r="U16" s="30">
-        <v>0</v>
-      </c>
-      <c r="V16" s="30">
-        <v>0</v>
-      </c>
-      <c r="W16" s="25">
-        <v>0</v>
-      </c>
-      <c r="X16" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="30">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="28" t="s">
+      <c r="AJ20" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="AJ16" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="2:42">
-      <c r="B17" s="32"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="29"/>
-    </row>
-    <row r="18" spans="2:42">
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30">
-        <v>0</v>
-      </c>
-      <c r="I18" s="31">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="30">
-        <v>0</v>
-      </c>
-      <c r="P18" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="30">
-        <v>0</v>
-      </c>
-      <c r="R18" s="30">
-        <v>0</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="30">
-        <v>0</v>
-      </c>
-      <c r="U18" s="30">
-        <v>0</v>
-      </c>
-      <c r="V18" s="30">
-        <v>0</v>
-      </c>
-      <c r="W18" s="25">
-        <v>0</v>
-      </c>
-      <c r="X18" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="30">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="30">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ18" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK18" s="8"/>
-    </row>
-    <row r="19" spans="2:42">
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30">
-        <v>0</v>
-      </c>
-      <c r="I19" s="31">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="30">
-        <v>0</v>
-      </c>
-      <c r="P19" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="30">
-        <v>0</v>
-      </c>
-      <c r="R19" s="30">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19" s="30">
-        <v>0</v>
-      </c>
-      <c r="U19" s="30">
-        <v>0</v>
-      </c>
-      <c r="V19" s="30">
-        <v>0</v>
-      </c>
-      <c r="W19" s="25">
-        <v>0</v>
-      </c>
-      <c r="X19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="25">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ19" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK19" s="29"/>
-    </row>
-    <row r="20" spans="2:42">
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="2:42">
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:49">
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="2:42">
+      <c r="AL21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="10"/>
+    </row>
+    <row r="22" spans="2:49" ht="15.75" thickBot="1">
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="V22" s="33"/>
-    </row>
-    <row r="23" spans="2:42" ht="15.75" thickBot="1">
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="2:42" ht="15.75" thickBot="1">
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="AJ24" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="42"/>
-    </row>
-    <row r="25" spans="2:42" ht="15.75" thickBot="1">
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="AJ25" s="17" t="s">
+      <c r="AL22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="14"/>
+    </row>
+    <row r="23" spans="2:49" ht="15.75" thickBot="1">
+      <c r="B23" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="37">
+        <v>1</v>
+      </c>
+      <c r="D23" s="37">
+        <v>1</v>
+      </c>
+      <c r="E23" s="37">
+        <v>1</v>
+      </c>
+      <c r="F23" s="37">
+        <v>1</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30">
+        <v>0</v>
+      </c>
+      <c r="I23" s="31">
+        <v>1</v>
+      </c>
+      <c r="J23" s="36">
+        <v>0</v>
+      </c>
+      <c r="K23" s="36">
+        <v>0</v>
+      </c>
+      <c r="L23" s="36">
+        <v>1</v>
+      </c>
+      <c r="M23" s="36">
+        <v>0</v>
+      </c>
+      <c r="N23" s="36">
+        <v>0</v>
+      </c>
+      <c r="O23" s="30">
+        <v>0</v>
+      </c>
+      <c r="P23" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>0</v>
+      </c>
+      <c r="R23" s="30">
+        <v>0</v>
+      </c>
+      <c r="S23" s="37">
+        <v>0</v>
+      </c>
+      <c r="T23" s="30">
+        <v>0</v>
+      </c>
+      <c r="U23" s="30">
+        <v>0</v>
+      </c>
+      <c r="V23" s="30">
+        <v>0</v>
+      </c>
+      <c r="W23" s="25">
+        <v>0</v>
+      </c>
+      <c r="X23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+    </row>
+    <row r="24" spans="2:49" ht="15.75" thickBot="1">
+      <c r="B24" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="37">
+        <v>1</v>
+      </c>
+      <c r="D24" s="37">
+        <v>1</v>
+      </c>
+      <c r="E24" s="37">
+        <v>1</v>
+      </c>
+      <c r="F24" s="37">
+        <v>1</v>
+      </c>
+      <c r="G24" s="37">
+        <v>0</v>
+      </c>
+      <c r="H24" s="30">
+        <v>0</v>
+      </c>
+      <c r="I24" s="31">
+        <v>1</v>
+      </c>
+      <c r="J24" s="36">
+        <v>0</v>
+      </c>
+      <c r="K24" s="36">
+        <v>1</v>
+      </c>
+      <c r="L24" s="36">
+        <v>1</v>
+      </c>
+      <c r="M24" s="36">
+        <v>0</v>
+      </c>
+      <c r="N24" s="36">
+        <v>0</v>
+      </c>
+      <c r="O24" s="30">
+        <v>0</v>
+      </c>
+      <c r="P24" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>0</v>
+      </c>
+      <c r="R24" s="30">
+        <v>0</v>
+      </c>
+      <c r="S24" s="37">
+        <v>0</v>
+      </c>
+      <c r="T24" s="30">
+        <v>0</v>
+      </c>
+      <c r="U24" s="30">
+        <v>0</v>
+      </c>
+      <c r="V24" s="30">
+        <v>0</v>
+      </c>
+      <c r="W24" s="25">
+        <v>0</v>
+      </c>
+      <c r="X24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="43"/>
+      <c r="AQ24" s="1"/>
+    </row>
+    <row r="25" spans="2:49" ht="15.75" thickBot="1">
+      <c r="B25" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="37">
+        <v>1</v>
+      </c>
+      <c r="D25" s="37">
+        <v>1</v>
+      </c>
+      <c r="E25" s="37">
+        <v>1</v>
+      </c>
+      <c r="F25" s="37">
+        <v>1</v>
+      </c>
+      <c r="G25" s="37">
+        <v>0</v>
+      </c>
+      <c r="H25" s="30">
+        <v>0</v>
+      </c>
+      <c r="I25" s="31">
+        <v>1</v>
+      </c>
+      <c r="J25" s="36">
+        <v>0</v>
+      </c>
+      <c r="K25" s="36">
+        <v>0</v>
+      </c>
+      <c r="L25" s="36">
+        <v>1</v>
+      </c>
+      <c r="M25" s="36">
+        <v>0</v>
+      </c>
+      <c r="N25" s="36">
+        <v>0</v>
+      </c>
+      <c r="O25" s="30">
+        <v>0</v>
+      </c>
+      <c r="P25" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="30">
+        <v>0</v>
+      </c>
+      <c r="R25" s="30">
+        <v>0</v>
+      </c>
+      <c r="S25" s="37">
+        <v>0</v>
+      </c>
+      <c r="T25" s="30">
+        <v>0</v>
+      </c>
+      <c r="U25" s="30">
+        <v>0</v>
+      </c>
+      <c r="V25" s="30">
+        <v>0</v>
+      </c>
+      <c r="W25" s="25">
+        <v>0</v>
+      </c>
+      <c r="X25" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="36"/>
+      <c r="AL25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AK25" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM25" s="19" t="s">
-        <v>20</v>
+      <c r="AM25" s="18" t="s">
+        <v>0</v>
       </c>
       <c r="AN25" s="19" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AO25" s="19" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AP25" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:42">
-      <c r="AJ26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26" s="9">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="9">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="AQ25" s="1"/>
+      <c r="AS25"/>
+      <c r="AW25" s="1"/>
+    </row>
+    <row r="26" spans="2:49">
+      <c r="B26" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="37">
+        <v>1</v>
+      </c>
+      <c r="D26" s="37">
+        <v>1</v>
+      </c>
+      <c r="E26" s="37">
+        <v>1</v>
+      </c>
+      <c r="F26" s="37">
+        <v>1</v>
+      </c>
+      <c r="G26" s="37">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30">
+        <v>0</v>
+      </c>
+      <c r="I26" s="31">
+        <v>1</v>
+      </c>
+      <c r="J26" s="36">
+        <v>0</v>
+      </c>
+      <c r="K26" s="36">
+        <v>1</v>
+      </c>
+      <c r="L26" s="36">
+        <v>1</v>
+      </c>
+      <c r="M26" s="36">
+        <v>0</v>
+      </c>
+      <c r="N26" s="36">
+        <v>0</v>
+      </c>
+      <c r="O26" s="30">
+        <v>0</v>
+      </c>
+      <c r="P26" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="30">
+        <v>0</v>
+      </c>
+      <c r="R26" s="30">
+        <v>0</v>
+      </c>
+      <c r="S26" s="37">
+        <v>0</v>
+      </c>
+      <c r="T26" s="30">
+        <v>0</v>
+      </c>
+      <c r="U26" s="30">
+        <v>0</v>
+      </c>
+      <c r="V26" s="30">
+        <v>0</v>
+      </c>
+      <c r="W26" s="25">
+        <v>0</v>
+      </c>
+      <c r="X26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="36"/>
+      <c r="AL26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM26" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="AN26" s="9">
         <v>0</v>
@@ -2960,280 +3928,192 @@
       <c r="AO26" s="9">
         <v>0</v>
       </c>
-      <c r="AP26" s="10"/>
-    </row>
-    <row r="27" spans="2:42">
-      <c r="AJ27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="10"/>
-    </row>
-    <row r="28" spans="2:42">
-      <c r="AJ28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL28" s="9">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="9">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="9">
-        <v>1</v>
-      </c>
-      <c r="AP28" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:42">
-      <c r="AJ29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK29" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="9">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="10"/>
-    </row>
-    <row r="30" spans="2:42">
-      <c r="AJ30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK30" s="8" t="s">
+      <c r="AP26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="1"/>
+      <c r="AS26"/>
+      <c r="AW26" s="1"/>
+    </row>
+    <row r="27" spans="2:49" ht="15.75" thickBot="1">
+      <c r="AI27" s="36"/>
+      <c r="AL27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="1"/>
+      <c r="AS27"/>
+      <c r="AW27" s="1"/>
+    </row>
+    <row r="28" spans="2:49" ht="15.75" thickBot="1">
+      <c r="AI28" s="36"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="1"/>
+      <c r="AS28"/>
+      <c r="AW28" s="1"/>
+    </row>
+    <row r="29" spans="2:49" ht="15.75" thickBot="1">
+      <c r="AI29" s="36"/>
+      <c r="AL29" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="1"/>
+      <c r="AS29"/>
+      <c r="AW29" s="1"/>
+    </row>
+    <row r="30" spans="2:49" ht="15.75" thickBot="1">
+      <c r="AI30" s="36"/>
+      <c r="AL30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM30" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP30" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ30" s="1"/>
+      <c r="AS30"/>
+      <c r="AW30" s="1"/>
+    </row>
+    <row r="31" spans="2:49">
+      <c r="AI31" s="36"/>
+      <c r="AL31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="1"/>
+      <c r="AS31"/>
+      <c r="AW31" s="1"/>
+    </row>
+    <row r="32" spans="2:49" ht="15.75" thickBot="1">
+      <c r="AI32" s="36"/>
+      <c r="AL32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AL30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:42">
-      <c r="AJ31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="9">
-        <v>1</v>
-      </c>
-      <c r="AO31" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="10"/>
-    </row>
-    <row r="32" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK32" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL32" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM32" s="13">
-        <v>1</v>
-      </c>
       <c r="AN32" s="13">
         <v>0</v>
       </c>
       <c r="AO32" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP32" s="14"/>
-    </row>
-    <row r="33" spans="36:41" ht="15.75" thickBot="1">
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
-      <c r="AO33" s="1"/>
-    </row>
-    <row r="34" spans="36:41" ht="15.75" thickBot="1">
-      <c r="AJ34" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="42"/>
-      <c r="AO34" s="1"/>
-    </row>
-    <row r="35" spans="36:41" ht="15.75" thickBot="1">
-      <c r="AJ35" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM35" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN35" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO35" s="1"/>
-    </row>
-    <row r="36" spans="36:41">
-      <c r="AJ36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="1"/>
-    </row>
-    <row r="37" spans="36:41" ht="15.75" thickBot="1">
-      <c r="AJ37" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK37" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL37" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM37" s="13">
-        <v>1</v>
-      </c>
-      <c r="AN37" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="1"/>
-    </row>
-    <row r="38" spans="36:41" ht="15.75" thickBot="1">
-      <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="1"/>
-    </row>
-    <row r="39" spans="36:41" ht="15.75" thickBot="1">
-      <c r="AJ39" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK39" s="41"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="42"/>
-      <c r="AO39" s="1"/>
-    </row>
-    <row r="40" spans="36:41" ht="15.75" thickBot="1">
-      <c r="AJ40" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM40" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN40" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO40" s="1"/>
-    </row>
-    <row r="41" spans="36:41">
-      <c r="AJ41" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK41" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL41" s="9">
-        <v>1</v>
-      </c>
-      <c r="AM41" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="1"/>
-    </row>
-    <row r="42" spans="36:41" ht="15.75" thickBot="1">
-      <c r="AJ42" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK42" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO42" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="1"/>
+      <c r="AS32"/>
+      <c r="AW32" s="1"/>
+    </row>
+    <row r="33" spans="35:49">
+      <c r="AI33" s="36"/>
+      <c r="AS33"/>
+      <c r="AW33" s="1"/>
+    </row>
+    <row r="34" spans="35:49">
+      <c r="AI34" s="36"/>
+      <c r="AS34"/>
+      <c r="AW34" s="1"/>
+    </row>
+    <row r="35" spans="35:49">
+      <c r="AI35" s="36"/>
+      <c r="AS35"/>
+      <c r="AW35" s="1"/>
+    </row>
+    <row r="36" spans="35:49">
+      <c r="AI36" s="36"/>
+      <c r="AS36"/>
+      <c r="AW36" s="1"/>
+    </row>
+    <row r="37" spans="35:49">
+      <c r="AI37" s="36"/>
+      <c r="AS37"/>
+      <c r="AW37" s="1"/>
+    </row>
+    <row r="38" spans="35:49">
+      <c r="AI38" s="36"/>
+      <c r="AS38"/>
+      <c r="AW38" s="1"/>
+    </row>
+    <row r="39" spans="35:49">
+      <c r="AI39" s="36"/>
+      <c r="AS39"/>
+      <c r="AW39" s="1"/>
+    </row>
+    <row r="40" spans="35:49">
+      <c r="AI40" s="36"/>
+      <c r="AS40"/>
+      <c r="AW40" s="1"/>
+    </row>
+    <row r="41" spans="35:49">
+      <c r="AI41" s="36"/>
+      <c r="AS41"/>
+      <c r="AW41" s="1"/>
+    </row>
+    <row r="42" spans="35:49">
+      <c r="AI42" s="36"/>
+      <c r="AS42"/>
+      <c r="AW42" s="1"/>
+    </row>
+    <row r="43" spans="35:49">
+      <c r="AI43" s="36"/>
+      <c r="AS43"/>
+      <c r="AW43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="AL29:AP29"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="T3:AH3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="AL24:AP24"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="AL14:AR14"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="W5:Z5"/>
@@ -3241,22 +4121,6 @@
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="W6:Z6"/>
     <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="AJ39:AN39"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="T3:AH3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="AJ34:AN34"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="AJ24:AP24"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3265,10 +4129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AT28"/>
+  <dimension ref="B2:AU28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AH4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3277,16 +4141,16 @@
     <col min="3" max="18" width="2.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="3.85546875" style="1" customWidth="1"/>
     <col min="20" max="34" width="2.85546875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="22" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.28515625" customWidth="1"/>
-    <col min="38" max="41" width="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.28515625" customWidth="1"/>
+    <col min="39" max="42" width="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42">
+    <row r="2" spans="2:43">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3386,11 +4250,11 @@
       <c r="AH2" s="1">
         <v>0</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:42">
+    <row r="3" spans="2:43">
       <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
@@ -3413,129 +4277,129 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-    </row>
-    <row r="4" spans="2:42">
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+    </row>
+    <row r="4" spans="2:43">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
       <c r="S4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="37" t="s">
+      <c r="T4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37" t="s">
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37" t="s">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37" t="s">
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AJ4" t="s">
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AK4" t="s">
         <v>93</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:42">
+    <row r="5" spans="2:43">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="2:42">
+    <row r="6" spans="2:43">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:42">
+    <row r="7" spans="2:43">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:42">
+    <row r="8" spans="2:43">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3543,53 +4407,248 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:42" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ10" s="40" t="s">
+    <row r="9" spans="2:43" ht="15.75" thickBot="1"/>
+    <row r="10" spans="2:43" ht="15.75" thickBot="1">
+      <c r="AK10" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
       <c r="AP10" s="42"/>
-    </row>
-    <row r="11" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ11" s="17" t="s">
+      <c r="AQ10" s="43"/>
+    </row>
+    <row r="11" spans="2:43" ht="15.75" thickBot="1">
+      <c r="B11" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37">
+        <v>1</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0</v>
+      </c>
+      <c r="G11" s="37">
+        <v>1</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37">
+        <v>1</v>
+      </c>
+      <c r="J11" s="48">
+        <v>1</v>
+      </c>
+      <c r="K11" s="48">
+        <v>0</v>
+      </c>
+      <c r="L11" s="48">
+        <v>0</v>
+      </c>
+      <c r="M11" s="48">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="27">
+        <v>0</v>
+      </c>
+      <c r="P11" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>0</v>
+      </c>
+      <c r="R11" s="27">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="47">
+        <v>0</v>
+      </c>
+      <c r="X11" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="47">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="47">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AK11" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="19" t="s">
+      <c r="AL11" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AM11" s="19" t="s">
+      <c r="AN11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AN11" s="19" t="s">
+      <c r="AO11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AO11" s="19" t="s">
+      <c r="AP11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AP11" s="20" t="s">
+      <c r="AQ11" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:42">
-      <c r="AJ12" s="7" t="s">
+    <row r="12" spans="2:43">
+      <c r="B12" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="37">
+        <v>1</v>
+      </c>
+      <c r="D12" s="37">
+        <v>1</v>
+      </c>
+      <c r="E12" s="37">
+        <v>1</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="37">
+        <v>1</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37">
+        <v>1</v>
+      </c>
+      <c r="J12" s="48">
+        <v>1</v>
+      </c>
+      <c r="K12" s="48">
+        <v>1</v>
+      </c>
+      <c r="L12" s="48">
+        <v>0</v>
+      </c>
+      <c r="M12" s="48">
+        <v>1</v>
+      </c>
+      <c r="N12" s="36">
+        <v>0</v>
+      </c>
+      <c r="O12" s="27">
+        <v>0</v>
+      </c>
+      <c r="P12" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>1</v>
+      </c>
+      <c r="R12" s="27">
+        <v>0</v>
+      </c>
+      <c r="S12" s="36">
+        <v>0</v>
+      </c>
+      <c r="T12" s="36">
+        <v>0</v>
+      </c>
+      <c r="U12" s="36">
+        <v>0</v>
+      </c>
+      <c r="V12" s="36">
+        <v>0</v>
+      </c>
+      <c r="W12" s="47">
+        <v>0</v>
+      </c>
+      <c r="X12" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AK12" s="8" t="s">
+      <c r="AL12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AL12" s="9">
-        <v>1</v>
-      </c>
       <c r="AM12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="9">
         <v>0</v>
@@ -3597,18 +4656,18 @@
       <c r="AO12" s="9">
         <v>0</v>
       </c>
-      <c r="AP12" s="10"/>
-    </row>
-    <row r="13" spans="2:42">
-      <c r="AJ13" s="7" t="s">
+      <c r="AP12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="10"/>
+    </row>
+    <row r="13" spans="2:43">
+      <c r="AK13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AK13" s="8" t="s">
+      <c r="AL13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AL13" s="9">
-        <v>0</v>
-      </c>
       <c r="AM13" s="9">
         <v>0</v>
       </c>
@@ -3618,124 +4677,127 @@
       <c r="AO13" s="9">
         <v>0</v>
       </c>
-      <c r="AP13" s="10"/>
-    </row>
-    <row r="14" spans="2:42">
-      <c r="AJ14" s="7" t="s">
+      <c r="AP13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="10"/>
+    </row>
+    <row r="14" spans="2:43">
+      <c r="AK14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AK14" s="8" t="s">
+      <c r="AL14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL14" s="9">
-        <v>1</v>
-      </c>
       <c r="AM14" s="9">
         <v>1</v>
       </c>
       <c r="AN14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="9">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:42">
-      <c r="AJ15" s="7" t="s">
+    <row r="15" spans="2:43">
+      <c r="AK15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AK15" s="8" t="s">
+      <c r="AL15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AL15" s="9">
-        <v>0</v>
-      </c>
       <c r="AM15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="9">
         <v>0</v>
       </c>
-      <c r="AP15" s="10"/>
-    </row>
-    <row r="16" spans="2:42">
-      <c r="AJ16" s="7" t="s">
+      <c r="AP15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="10"/>
+    </row>
+    <row r="16" spans="2:43">
+      <c r="AK16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AK16" s="8" t="s">
+      <c r="AL16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AL16" s="9">
-        <v>0</v>
-      </c>
       <c r="AM16" s="9">
         <v>0</v>
       </c>
       <c r="AN16" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:46">
-      <c r="AJ17" s="7" t="s">
+    <row r="17" spans="3:47">
+      <c r="AK17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AK17" s="8" t="s">
+      <c r="AL17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AL17" s="9">
-        <v>0</v>
-      </c>
       <c r="AM17" s="9">
         <v>0</v>
       </c>
       <c r="AN17" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="10"/>
-    </row>
-    <row r="18" spans="3:46" ht="15.75" thickBot="1">
-      <c r="AJ18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="10"/>
+    </row>
+    <row r="18" spans="3:47" ht="15.75" thickBot="1">
+      <c r="AK18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AK18" s="12" t="s">
+      <c r="AL18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AL18" s="13">
-        <v>1</v>
-      </c>
       <c r="AM18" s="13">
         <v>1</v>
       </c>
       <c r="AN18" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="14"/>
-    </row>
-    <row r="19" spans="3:46">
-      <c r="AL19" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="14"/>
+    </row>
+    <row r="19" spans="3:47">
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
-    </row>
-    <row r="20" spans="3:46">
+      <c r="AP19" s="1"/>
+    </row>
+    <row r="20" spans="3:47">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3765,17 +4827,17 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-      <c r="AJ20" s="1"/>
-      <c r="AL20" s="1"/>
+      <c r="AK20" s="1"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
-      <c r="AQ20"/>
+      <c r="AP20" s="1"/>
       <c r="AR20"/>
       <c r="AS20"/>
       <c r="AT20"/>
-    </row>
-    <row r="21" spans="3:46">
+      <c r="AU20"/>
+    </row>
+    <row r="21" spans="3:47">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -3803,16 +4865,16 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
-      <c r="AQ21"/>
+      <c r="AP21" s="1"/>
       <c r="AR21"/>
       <c r="AS21"/>
       <c r="AT21"/>
-    </row>
-    <row r="22" spans="3:46">
+      <c r="AU21"/>
+    </row>
+    <row r="22" spans="3:47">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3840,75 +4902,75 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
-      <c r="AQ22"/>
+      <c r="AP22" s="1"/>
       <c r="AR22"/>
       <c r="AS22"/>
       <c r="AT22"/>
-    </row>
-    <row r="23" spans="3:46">
-      <c r="AL23" s="1"/>
+      <c r="AU22"/>
+    </row>
+    <row r="23" spans="3:47">
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
-      <c r="AQ23"/>
+      <c r="AP23" s="1"/>
       <c r="AR23"/>
       <c r="AS23"/>
       <c r="AT23"/>
-    </row>
-    <row r="24" spans="3:46">
-      <c r="AL24" s="1"/>
+      <c r="AU23"/>
+    </row>
+    <row r="24" spans="3:47">
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
-      <c r="AQ24"/>
+      <c r="AP24" s="1"/>
       <c r="AR24"/>
       <c r="AS24"/>
       <c r="AT24"/>
-    </row>
-    <row r="25" spans="3:46">
-      <c r="AL25" s="1"/>
+      <c r="AU24"/>
+    </row>
+    <row r="25" spans="3:47">
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
-      <c r="AQ25"/>
+      <c r="AP25" s="1"/>
       <c r="AR25"/>
       <c r="AS25"/>
       <c r="AT25"/>
-    </row>
-    <row r="26" spans="3:46">
-      <c r="AL26" s="1"/>
+      <c r="AU25"/>
+    </row>
+    <row r="26" spans="3:47">
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
-      <c r="AQ26"/>
+      <c r="AP26" s="1"/>
       <c r="AR26"/>
       <c r="AS26"/>
       <c r="AT26"/>
-    </row>
-    <row r="27" spans="3:46">
-      <c r="AL27" s="1"/>
+      <c r="AU26"/>
+    </row>
+    <row r="27" spans="3:47">
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
-      <c r="AQ27"/>
+      <c r="AP27" s="1"/>
       <c r="AR27"/>
       <c r="AS27"/>
       <c r="AT27"/>
-    </row>
-    <row r="28" spans="3:46">
-      <c r="AJ28" s="1"/>
-      <c r="AL28" s="1"/>
+      <c r="AU27"/>
+    </row>
+    <row r="28" spans="3:47">
+      <c r="AK28" s="1"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
-      <c r="AQ28"/>
+      <c r="AP28" s="1"/>
       <c r="AR28"/>
       <c r="AS28"/>
       <c r="AT28"/>
+      <c r="AU28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3916,7 +4978,7 @@
     <mergeCell ref="S3:AH3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="AJ10:AP10"/>
+    <mergeCell ref="AK10:AQ10"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="T4:V4"/>
@@ -3934,7 +4996,7 @@
   <dimension ref="B2:AT28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4085,82 +5147,82 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="37"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37" t="s">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37" t="s">
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
       <c r="AJ4" t="s">
         <v>96</v>
       </c>
@@ -4179,38 +5241,38 @@
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37" t="s">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37" t="s">
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
       <c r="AJ5" t="s">
         <v>63</v>
       </c>
@@ -4229,38 +5291,38 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37" t="s">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37" t="s">
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
       <c r="AJ6" t="s">
         <v>64</v>
       </c>
@@ -4287,15 +5349,15 @@
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ10" s="40" t="s">
+      <c r="AJ10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+      <c r="AP10" s="43"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1">
       <c r="AJ11" s="17" t="s">
@@ -4422,7 +5484,7 @@
     </row>
     <row r="16" spans="2:42">
       <c r="B16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -4549,7 +5611,7 @@
     </row>
     <row r="18" spans="2:46">
       <c r="B18" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -4642,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="30">
         <v>0</v>
@@ -4651,7 +5713,7 @@
         <v>109</v>
       </c>
       <c r="AJ18" s="29" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="AK18" s="8"/>
       <c r="AL18" s="22" t="s">
@@ -4671,7 +5733,7 @@
     </row>
     <row r="20" spans="2:46">
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4717,7 +5779,7 @@
     </row>
     <row r="21" spans="2:46">
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -4870,6 +5932,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S3:AH3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
     <mergeCell ref="AJ10:AP10"/>
     <mergeCell ref="W4:AH4"/>
     <mergeCell ref="S4:V4"/>
@@ -4879,11 +5946,6 @@
     <mergeCell ref="W6:AH6"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="S3:AH3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="S6:V6"/>
   </mergeCells>
@@ -4895,8 +5957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5037,61 +6099,61 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
       <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
       <c r="T4" s="1">
         <v>0</v>
       </c>
@@ -5104,19 +6166,19 @@
       <c r="W4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="X4" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
       <c r="AJ4" s="3" t="s">
         <v>100</v>
       </c>
@@ -5128,29 +6190,29 @@
       <c r="B5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
       <c r="T5" s="1">
         <v>0</v>
       </c>
@@ -5163,19 +6225,19 @@
       <c r="W5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="37" t="s">
+      <c r="X5" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
       <c r="AJ5" t="s">
         <v>85</v>
       </c>
@@ -5267,7 +6329,7 @@
     </row>
     <row r="15" spans="2:46">
       <c r="B15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -5369,7 +6431,7 @@
         <v>106</v>
       </c>
       <c r="AJ15" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK15" s="23"/>
       <c r="AL15" s="9"/>
@@ -5379,8 +6441,114 @@
       <c r="AP15" s="8"/>
     </row>
     <row r="16" spans="2:46">
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="8"/>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="37">
+        <v>1</v>
+      </c>
+      <c r="D16" s="37">
+        <v>1</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1</v>
+      </c>
+      <c r="F16" s="37">
+        <v>1</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0</v>
+      </c>
+      <c r="H16" s="36">
+        <v>1</v>
+      </c>
+      <c r="I16" s="30">
+        <v>1</v>
+      </c>
+      <c r="J16" s="30">
+        <v>1</v>
+      </c>
+      <c r="K16" s="30">
+        <v>1</v>
+      </c>
+      <c r="L16" s="30">
+        <v>1</v>
+      </c>
+      <c r="M16" s="30">
+        <v>1</v>
+      </c>
+      <c r="N16" s="30">
+        <v>1</v>
+      </c>
+      <c r="O16" s="30">
+        <v>1</v>
+      </c>
+      <c r="P16" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>1</v>
+      </c>
+      <c r="R16" s="30">
+        <v>1</v>
+      </c>
+      <c r="S16" s="37">
+        <v>1</v>
+      </c>
+      <c r="T16" s="36">
+        <v>0</v>
+      </c>
+      <c r="U16" s="30">
+        <v>1</v>
+      </c>
+      <c r="V16" s="36">
+        <v>1</v>
+      </c>
+      <c r="W16" s="30">
+        <v>1</v>
+      </c>
+      <c r="X16" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ16" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>133</v>
+      </c>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
@@ -5525,4 +6693,1396 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:AW35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN31" sqref="AN31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="34" width="2.85546875" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.85546875" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:49">
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>17</v>
+      </c>
+      <c r="R3">
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>15</v>
+      </c>
+      <c r="T3">
+        <v>14</v>
+      </c>
+      <c r="U3">
+        <v>13</v>
+      </c>
+      <c r="V3">
+        <v>12</v>
+      </c>
+      <c r="W3">
+        <v>11</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>9</v>
+      </c>
+      <c r="Z3">
+        <v>8</v>
+      </c>
+      <c r="AA3">
+        <v>7</v>
+      </c>
+      <c r="AB3">
+        <v>6</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+    </row>
+    <row r="4" spans="2:49" ht="15.75" thickBot="1">
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="49">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="49">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="49">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="49"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:49">
+      <c r="B5" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51">
+        <v>1</v>
+      </c>
+      <c r="E5" s="51">
+        <v>1</v>
+      </c>
+      <c r="F5" s="51">
+        <v>1</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0</v>
+      </c>
+      <c r="I5" s="53">
+        <v>1</v>
+      </c>
+      <c r="J5" s="54">
+        <v>0</v>
+      </c>
+      <c r="K5" s="60">
+        <v>0</v>
+      </c>
+      <c r="L5" s="61">
+        <v>1</v>
+      </c>
+      <c r="M5" s="61">
+        <v>0</v>
+      </c>
+      <c r="N5" s="61">
+        <v>0</v>
+      </c>
+      <c r="O5" s="52">
+        <v>0</v>
+      </c>
+      <c r="P5" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="52">
+        <v>0</v>
+      </c>
+      <c r="R5" s="62">
+        <v>0</v>
+      </c>
+      <c r="S5" s="50">
+        <v>0</v>
+      </c>
+      <c r="T5" s="52">
+        <v>0</v>
+      </c>
+      <c r="U5" s="52">
+        <v>0</v>
+      </c>
+      <c r="V5" s="52">
+        <v>0</v>
+      </c>
+      <c r="W5" s="69">
+        <v>0</v>
+      </c>
+      <c r="X5" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="70">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="73">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="52">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="52">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="52">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="62">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="77">
+        <v>11110010</v>
+      </c>
+      <c r="AK5" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL5" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM5" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN5" s="49"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+    </row>
+    <row r="6" spans="2:49">
+      <c r="B6" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="55">
+        <v>1</v>
+      </c>
+      <c r="D6" s="56">
+        <v>1</v>
+      </c>
+      <c r="E6" s="56">
+        <v>1</v>
+      </c>
+      <c r="F6" s="56">
+        <v>1</v>
+      </c>
+      <c r="G6" s="56">
+        <v>0</v>
+      </c>
+      <c r="H6" s="57">
+        <v>0</v>
+      </c>
+      <c r="I6" s="58">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="63">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="57">
+        <v>0</v>
+      </c>
+      <c r="P6" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="57">
+        <v>0</v>
+      </c>
+      <c r="R6" s="64">
+        <v>0</v>
+      </c>
+      <c r="S6" s="55">
+        <v>0</v>
+      </c>
+      <c r="T6" s="57">
+        <v>0</v>
+      </c>
+      <c r="U6" s="57">
+        <v>0</v>
+      </c>
+      <c r="V6" s="57">
+        <v>0</v>
+      </c>
+      <c r="W6" s="71">
+        <v>0</v>
+      </c>
+      <c r="X6" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="57">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="57">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="57">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK6" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL6" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM6" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN6" s="49"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
+    </row>
+    <row r="7" spans="2:49">
+      <c r="B7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1</v>
+      </c>
+      <c r="D7" s="56">
+        <v>1</v>
+      </c>
+      <c r="E7" s="56">
+        <v>1</v>
+      </c>
+      <c r="F7" s="56">
+        <v>1</v>
+      </c>
+      <c r="G7" s="56">
+        <v>0</v>
+      </c>
+      <c r="H7" s="57">
+        <v>0</v>
+      </c>
+      <c r="I7" s="58">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="63">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="57">
+        <v>0</v>
+      </c>
+      <c r="P7" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="57">
+        <v>0</v>
+      </c>
+      <c r="R7" s="64">
+        <v>0</v>
+      </c>
+      <c r="S7" s="55">
+        <v>0</v>
+      </c>
+      <c r="T7" s="57">
+        <v>0</v>
+      </c>
+      <c r="U7" s="57">
+        <v>0</v>
+      </c>
+      <c r="V7" s="57">
+        <v>0</v>
+      </c>
+      <c r="W7" s="71">
+        <v>0</v>
+      </c>
+      <c r="X7" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="57">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="57">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="57">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="57">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="64">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK7" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL7" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM7" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN7" s="49"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+    </row>
+    <row r="8" spans="2:49">
+      <c r="B8" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="55">
+        <v>1</v>
+      </c>
+      <c r="D8" s="56">
+        <v>1</v>
+      </c>
+      <c r="E8" s="56">
+        <v>1</v>
+      </c>
+      <c r="F8" s="56">
+        <v>1</v>
+      </c>
+      <c r="G8" s="56">
+        <v>0</v>
+      </c>
+      <c r="H8" s="57">
+        <v>0</v>
+      </c>
+      <c r="I8" s="58">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="63">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="57">
+        <v>0</v>
+      </c>
+      <c r="P8" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="57">
+        <v>0</v>
+      </c>
+      <c r="R8" s="64">
+        <v>0</v>
+      </c>
+      <c r="S8" s="55">
+        <v>0</v>
+      </c>
+      <c r="T8" s="57">
+        <v>0</v>
+      </c>
+      <c r="U8" s="57">
+        <v>0</v>
+      </c>
+      <c r="V8" s="57">
+        <v>0</v>
+      </c>
+      <c r="W8" s="71">
+        <v>0</v>
+      </c>
+      <c r="X8" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="57">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="57">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="57">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="57">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK8" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL8" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM8" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN8" s="49"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+    </row>
+    <row r="9" spans="2:49">
+      <c r="B9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="55">
+        <v>1</v>
+      </c>
+      <c r="D9" s="56">
+        <v>1</v>
+      </c>
+      <c r="E9" s="56">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1</v>
+      </c>
+      <c r="H9" s="56">
+        <v>0</v>
+      </c>
+      <c r="I9" s="56">
+        <v>1</v>
+      </c>
+      <c r="J9" s="59">
+        <v>1</v>
+      </c>
+      <c r="K9" s="65">
+        <v>0</v>
+      </c>
+      <c r="L9" s="66">
+        <v>0</v>
+      </c>
+      <c r="M9" s="66">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="67">
+        <v>0</v>
+      </c>
+      <c r="P9" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="67">
+        <v>0</v>
+      </c>
+      <c r="R9" s="68">
+        <v>1</v>
+      </c>
+      <c r="S9" s="63">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="71">
+        <v>0</v>
+      </c>
+      <c r="X9" s="71">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="71">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="72">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="63">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="75">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="75">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="76">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK9" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL9" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM9" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN9" s="49"/>
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="28"/>
+    </row>
+    <row r="10" spans="2:49">
+      <c r="B10" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="55">
+        <v>1</v>
+      </c>
+      <c r="D10" s="56">
+        <v>1</v>
+      </c>
+      <c r="E10" s="56">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="56">
+        <v>1</v>
+      </c>
+      <c r="H10" s="56">
+        <v>0</v>
+      </c>
+      <c r="I10" s="56">
+        <v>1</v>
+      </c>
+      <c r="J10" s="59">
+        <v>1</v>
+      </c>
+      <c r="K10" s="65">
+        <v>1</v>
+      </c>
+      <c r="L10" s="66">
+        <v>0</v>
+      </c>
+      <c r="M10" s="66">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="67">
+        <v>0</v>
+      </c>
+      <c r="P10" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="67">
+        <v>1</v>
+      </c>
+      <c r="R10" s="68">
+        <v>0</v>
+      </c>
+      <c r="S10" s="63">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="71">
+        <v>0</v>
+      </c>
+      <c r="X10" s="71">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="71">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="72">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="63">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="75">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="75">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="75">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="76">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK10" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL10" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM10" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN10" s="49"/>
+      <c r="AU10" s="28"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="28"/>
+    </row>
+    <row r="11" spans="2:49">
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="55">
+        <v>1</v>
+      </c>
+      <c r="D11" s="56">
+        <v>1</v>
+      </c>
+      <c r="E11" s="56">
+        <v>1</v>
+      </c>
+      <c r="F11" s="56">
+        <v>1</v>
+      </c>
+      <c r="G11" s="56">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="57">
+        <v>1</v>
+      </c>
+      <c r="J11" s="64">
+        <v>1</v>
+      </c>
+      <c r="K11" s="74">
+        <v>1</v>
+      </c>
+      <c r="L11" s="57">
+        <v>1</v>
+      </c>
+      <c r="M11" s="57">
+        <v>1</v>
+      </c>
+      <c r="N11" s="57">
+        <v>1</v>
+      </c>
+      <c r="O11" s="57">
+        <v>1</v>
+      </c>
+      <c r="P11" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="57">
+        <v>1</v>
+      </c>
+      <c r="R11" s="64">
+        <v>1</v>
+      </c>
+      <c r="S11" s="55">
+        <v>1</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="57">
+        <v>1</v>
+      </c>
+      <c r="V11" s="9">
+        <v>1</v>
+      </c>
+      <c r="W11" s="57">
+        <v>1</v>
+      </c>
+      <c r="X11" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="64">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="57">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="57">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="57">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="57">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="57">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="64">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK11" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL11" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM11" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN11" s="49"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+    </row>
+    <row r="12" spans="2:49" ht="15.75" thickBot="1">
+      <c r="B12" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK12" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL12" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM12" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="AN12" s="49"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
+    </row>
+    <row r="15" spans="2:49">
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+    </row>
+    <row r="16" spans="2:49">
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL16" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM16" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN16" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO16" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="36:41">
+      <c r="AJ17" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK17" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL17" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM17" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN17" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO17" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="36:41">
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL18" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM18" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO18" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="36:41">
+      <c r="AJ19" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK19" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN19" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO19" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="36:41">
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL20" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM20" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN20" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO20" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="36:41">
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL21" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM21" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN21" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO21" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="36:41">
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL22" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM22" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN22" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO22" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="36:41" ht="30">
+      <c r="AJ23" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK23" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL23" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM23" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN23" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO23" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="36:41">
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO24" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="36:41">
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+    </row>
+    <row r="27" spans="36:41">
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="28"/>
+      <c r="AO27" s="28"/>
+    </row>
+    <row r="28" spans="36:41">
+      <c r="AJ28" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK28" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+    </row>
+    <row r="29" spans="36:41">
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+    </row>
+    <row r="30" spans="36:41">
+      <c r="AJ30" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK30" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="28"/>
+      <c r="AN30" s="28"/>
+      <c r="AO30" s="28"/>
+    </row>
+    <row r="31" spans="36:41">
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="28"/>
+    </row>
+    <row r="32" spans="36:41">
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="28"/>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28"/>
+    </row>
+    <row r="33" spans="36:41">
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
+    </row>
+    <row r="34" spans="36:41" ht="30">
+      <c r="AJ34" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK34" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+    </row>
+    <row r="35" spans="36:41">
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="AJ17:AJ18"/>
+    <mergeCell ref="AJ19:AJ20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PDFs/Instrucciones implementadas.xlsx
+++ b/PDFs/Instrucciones implementadas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="197">
   <si>
     <t>Instruction</t>
   </si>
@@ -599,6 +599,51 @@
   </si>
   <si>
     <t>Etapa Ejecucion</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>ALUREG</t>
+  </si>
+  <si>
+    <t>ALU16</t>
   </si>
 </sst>
 </file>
@@ -854,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -933,32 +978,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1053,6 +1074,50 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,98 +1548,98 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
     </row>
     <row r="4" spans="2:34">
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="35">
         <v>0</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
       <c r="S4" s="34"/>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39" t="s">
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39" t="s">
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
     </row>
     <row r="5" spans="2:34">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1590,48 +1655,48 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38" t="s">
+      <c r="N5" s="80"/>
+      <c r="O5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38" t="s">
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38" t="s">
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38" t="s">
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
     </row>
     <row r="6" spans="2:34">
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1647,38 +1712,38 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38" t="s">
+      <c r="N6" s="80"/>
+      <c r="O6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38" t="s">
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38" t="s">
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38" t="s">
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
     </row>
     <row r="7" spans="2:34">
       <c r="T7" s="3"/>
@@ -1720,88 +1785,88 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
     </row>
     <row r="9" spans="2:34">
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38" t="s">
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
       <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
       <c r="S9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="T9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38" t="s">
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38" t="s">
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38" t="s">
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38" t="s">
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="4" t="s">
@@ -1828,98 +1893,98 @@
       <c r="I11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="40"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
     </row>
     <row r="12" spans="2:34">
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="38"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38" t="s">
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38" t="s">
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="80"/>
+      <c r="AH12" s="80"/>
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="38"/>
+      <c r="K13" s="80"/>
       <c r="L13" s="1">
         <v>0</v>
       </c>
@@ -1929,42 +1994,42 @@
       <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="80"/>
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="38"/>
+      <c r="K14" s="80"/>
       <c r="L14" s="1">
         <v>1</v>
       </c>
@@ -1974,26 +2039,26 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="4" t="s">
@@ -2014,61 +2079,61 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
       <c r="S16" s="5">
         <v>1</v>
       </c>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
     </row>
     <row r="17" spans="2:34">
       <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
       <c r="T17" s="1">
         <v>0</v>
       </c>
@@ -2081,47 +2146,47 @@
       <c r="W17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X17" s="38" t="s">
+      <c r="X17" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="80"/>
+      <c r="AH17" s="80"/>
     </row>
     <row r="18" spans="2:34">
       <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38" t="s">
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
       <c r="T18" s="1">
         <v>0</v>
       </c>
@@ -2134,19 +2199,19 @@
       <c r="W18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="38" t="s">
+      <c r="X18" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -2209,7 +2274,7 @@
   <dimension ref="B2:AW43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:AH26"/>
+      <selection activeCell="O5" sqref="O5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2334,6 +2399,9 @@
       <c r="AJ2" t="s">
         <v>3</v>
       </c>
+      <c r="AN2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="3" spans="2:44">
       <c r="B3" s="4" t="s">
@@ -2354,104 +2422,122 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AN3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO3" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP3" s="29" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="4" spans="2:44">
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="35">
         <v>0</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="39" t="s">
+      <c r="T4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39" t="s">
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39" t="s">
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="81"/>
       <c r="AJ4" t="s">
         <v>4</v>
       </c>
       <c r="AK4" t="s">
         <v>15</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO4" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP4" s="29" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:44">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2467,51 +2553,60 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38" t="s">
+      <c r="N5" s="80"/>
+      <c r="O5" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38" t="s">
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38" t="s">
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38" t="s">
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
       <c r="AK5" t="s">
         <v>15</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO5" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP5" s="29" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:44">
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2527,40 +2622,49 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38" t="s">
+      <c r="N6" s="80"/>
+      <c r="O6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38" t="s">
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38" t="s">
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38" t="s">
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
       <c r="AK6" t="s">
         <v>16</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO6" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP6" s="29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:44">
@@ -2584,22 +2688,61 @@
       <c r="AJ7" t="s">
         <v>91</v>
       </c>
+      <c r="AN7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO7" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP7" s="29" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="8" spans="2:44">
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
+      <c r="AN8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO8" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP8" s="29" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="9" spans="2:44">
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
+      <c r="AN9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO9" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP9" s="29" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="10" spans="2:44">
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
+      <c r="AN10" s="71" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="11" spans="2:44">
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
+      <c r="AN11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO11" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP11" s="29" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="12" spans="2:44">
       <c r="B12" t="s">
@@ -2642,6 +2785,15 @@
       </c>
       <c r="AJ12" s="8" t="s">
         <v>105</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO12" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP12" s="29" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="2:44" ht="15.75" thickBot="1">
@@ -2727,15 +2879,15 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="29"/>
-      <c r="AL14" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="43"/>
+      <c r="AL14" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="85"/>
     </row>
     <row r="15" spans="2:44" ht="15.75" thickBot="1">
       <c r="B15" t="s">
@@ -3686,13 +3838,13 @@
       <c r="AH24" s="30">
         <v>0</v>
       </c>
-      <c r="AL24" s="41" t="s">
+      <c r="AL24" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="43"/>
+      <c r="AM24" s="84"/>
+      <c r="AN24" s="84"/>
+      <c r="AO24" s="84"/>
+      <c r="AP24" s="85"/>
       <c r="AQ24" s="1"/>
     </row>
     <row r="25" spans="2:49" ht="15.75" thickBot="1">
@@ -3916,19 +4068,19 @@
         <v>0</v>
       </c>
       <c r="AI26" s="36"/>
-      <c r="AL26" s="7" t="s">
+      <c r="AL26" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="AM26" s="8" t="s">
+      <c r="AM26" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="AN26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="15">
+      <c r="AN26" s="74">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="74">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="75">
         <v>0</v>
       </c>
       <c r="AQ26" s="1"/>
@@ -3937,19 +4089,19 @@
     </row>
     <row r="27" spans="2:49" ht="15.75" thickBot="1">
       <c r="AI27" s="36"/>
-      <c r="AL27" s="11" t="s">
+      <c r="AL27" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="AM27" s="12" t="s">
+      <c r="AM27" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="AN27" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP27" s="16">
+      <c r="AN27" s="78">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="78">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="79">
         <v>0</v>
       </c>
       <c r="AQ27" s="1"/>
@@ -3967,13 +4119,13 @@
     </row>
     <row r="29" spans="2:49" ht="15.75" thickBot="1">
       <c r="AI29" s="36"/>
-      <c r="AL29" s="41" t="s">
+      <c r="AL29" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="43"/>
+      <c r="AM29" s="84"/>
+      <c r="AN29" s="84"/>
+      <c r="AO29" s="84"/>
+      <c r="AP29" s="85"/>
       <c r="AQ29" s="1"/>
       <c r="AS29"/>
       <c r="AW29" s="1"/>
@@ -4132,7 +4284,7 @@
   <dimension ref="B2:AU28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:AH12"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4277,88 +4429,88 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
     </row>
     <row r="4" spans="2:43">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
       <c r="N4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
       <c r="S4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38" t="s">
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38" t="s">
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38" t="s">
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38" t="s">
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
       <c r="AK4" t="s">
         <v>93</v>
       </c>
@@ -4409,15 +4561,15 @@
     </row>
     <row r="9" spans="2:43" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:43" ht="15.75" thickBot="1">
-      <c r="AK10" s="41" t="s">
+      <c r="AK10" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="43"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="85"/>
     </row>
     <row r="11" spans="2:43" ht="15.75" thickBot="1">
       <c r="B11" s="28" t="s">
@@ -4444,16 +4596,16 @@
       <c r="I11" s="37">
         <v>1</v>
       </c>
-      <c r="J11" s="48">
-        <v>1</v>
-      </c>
-      <c r="K11" s="48">
-        <v>0</v>
-      </c>
-      <c r="L11" s="48">
-        <v>0</v>
-      </c>
-      <c r="M11" s="48">
+      <c r="J11" s="40">
+        <v>1</v>
+      </c>
+      <c r="K11" s="40">
+        <v>0</v>
+      </c>
+      <c r="L11" s="40">
+        <v>0</v>
+      </c>
+      <c r="M11" s="40">
         <v>0</v>
       </c>
       <c r="N11" s="1">
@@ -4483,16 +4635,16 @@
       <c r="V11" s="1">
         <v>0</v>
       </c>
-      <c r="W11" s="47">
-        <v>0</v>
-      </c>
-      <c r="X11" s="47">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="47">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="47">
+      <c r="W11" s="39">
+        <v>0</v>
+      </c>
+      <c r="X11" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="39">
         <v>1</v>
       </c>
       <c r="AA11" s="1">
@@ -4566,16 +4718,16 @@
       <c r="I12" s="37">
         <v>1</v>
       </c>
-      <c r="J12" s="48">
-        <v>1</v>
-      </c>
-      <c r="K12" s="48">
-        <v>1</v>
-      </c>
-      <c r="L12" s="48">
-        <v>0</v>
-      </c>
-      <c r="M12" s="48">
+      <c r="J12" s="40">
+        <v>1</v>
+      </c>
+      <c r="K12" s="40">
+        <v>1</v>
+      </c>
+      <c r="L12" s="40">
+        <v>0</v>
+      </c>
+      <c r="M12" s="40">
         <v>1</v>
       </c>
       <c r="N12" s="36">
@@ -4605,16 +4757,16 @@
       <c r="V12" s="36">
         <v>0</v>
       </c>
-      <c r="W12" s="47">
-        <v>0</v>
-      </c>
-      <c r="X12" s="47">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="47">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="47">
+      <c r="W12" s="39">
+        <v>0</v>
+      </c>
+      <c r="X12" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="39">
         <v>0</v>
       </c>
       <c r="AA12" s="36">
@@ -4995,8 +5147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AT28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5147,82 +5299,82 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="38"/>
+      <c r="M4" s="80"/>
       <c r="N4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38" t="s">
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38" t="s">
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
       <c r="AJ4" t="s">
         <v>96</v>
       </c>
@@ -5241,38 +5393,38 @@
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38" t="s">
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38" t="s">
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
       <c r="AJ5" t="s">
         <v>63</v>
       </c>
@@ -5291,38 +5443,38 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38" t="s">
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38" t="s">
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
       <c r="AJ6" t="s">
         <v>64</v>
       </c>
@@ -5349,15 +5501,15 @@
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ10" s="41" t="s">
+      <c r="AJ10" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="43"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="85"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1">
       <c r="AJ11" s="17" t="s">
@@ -5958,7 +6110,7 @@
   <dimension ref="B2:AT28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:AH16"/>
+      <selection activeCell="I5" sqref="I5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6099,61 +6251,61 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
       <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
       <c r="T4" s="1">
         <v>0</v>
       </c>
@@ -6166,19 +6318,19 @@
       <c r="W4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
       <c r="AJ4" s="3" t="s">
         <v>100</v>
       </c>
@@ -6190,29 +6342,29 @@
       <c r="B5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38" t="s">
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="1">
         <v>0</v>
       </c>
@@ -6225,19 +6377,19 @@
       <c r="W5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="38" t="s">
+      <c r="X5" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
       <c r="AJ5" t="s">
         <v>85</v>
       </c>
@@ -6699,7 +6851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:AW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AN31" sqref="AN31"/>
     </sheetView>
   </sheetViews>
@@ -6813,33 +6965,33 @@
       <c r="AH3">
         <v>0</v>
       </c>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49" t="s">
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
       <c r="AU3" s="28"/>
       <c r="AV3" s="28"/>
       <c r="AW3" s="28"/>
     </row>
     <row r="4" spans="2:49" ht="15.75" thickBot="1">
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="49">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="49">
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="41">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="41">
         <v>2</v>
       </c>
-      <c r="AM4" s="49">
+      <c r="AM4" s="41">
         <v>3</v>
       </c>
-      <c r="AN4" s="49"/>
+      <c r="AN4" s="41"/>
       <c r="AU4" s="28"/>
       <c r="AV4" s="28"/>
       <c r="AW4" s="28" t="s">
@@ -6850,116 +7002,116 @@
       <c r="B5" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="50">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51">
-        <v>1</v>
-      </c>
-      <c r="E5" s="51">
-        <v>1</v>
-      </c>
-      <c r="F5" s="51">
-        <v>1</v>
-      </c>
-      <c r="G5" s="51">
-        <v>0</v>
-      </c>
-      <c r="H5" s="52">
-        <v>0</v>
-      </c>
-      <c r="I5" s="53">
-        <v>1</v>
-      </c>
-      <c r="J5" s="54">
-        <v>0</v>
-      </c>
-      <c r="K5" s="60">
-        <v>0</v>
-      </c>
-      <c r="L5" s="61">
-        <v>1</v>
-      </c>
-      <c r="M5" s="61">
-        <v>0</v>
-      </c>
-      <c r="N5" s="61">
-        <v>0</v>
-      </c>
-      <c r="O5" s="52">
-        <v>0</v>
-      </c>
-      <c r="P5" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="52">
-        <v>0</v>
-      </c>
-      <c r="R5" s="62">
-        <v>0</v>
-      </c>
-      <c r="S5" s="50">
-        <v>0</v>
-      </c>
-      <c r="T5" s="52">
-        <v>0</v>
-      </c>
-      <c r="U5" s="52">
-        <v>0</v>
-      </c>
-      <c r="V5" s="52">
-        <v>0</v>
-      </c>
-      <c r="W5" s="69">
-        <v>0</v>
-      </c>
-      <c r="X5" s="69">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="69">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="70">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="52">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="52">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="52">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="52">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="52">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="52">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="62">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="77">
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="43">
+        <v>1</v>
+      </c>
+      <c r="E5" s="43">
+        <v>1</v>
+      </c>
+      <c r="F5" s="43">
+        <v>1</v>
+      </c>
+      <c r="G5" s="43">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
+        <v>1</v>
+      </c>
+      <c r="J5" s="46">
+        <v>0</v>
+      </c>
+      <c r="K5" s="52">
+        <v>0</v>
+      </c>
+      <c r="L5" s="53">
+        <v>1</v>
+      </c>
+      <c r="M5" s="53">
+        <v>0</v>
+      </c>
+      <c r="N5" s="53">
+        <v>0</v>
+      </c>
+      <c r="O5" s="44">
+        <v>0</v>
+      </c>
+      <c r="P5" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>0</v>
+      </c>
+      <c r="R5" s="54">
+        <v>0</v>
+      </c>
+      <c r="S5" s="42">
+        <v>0</v>
+      </c>
+      <c r="T5" s="44">
+        <v>0</v>
+      </c>
+      <c r="U5" s="44">
+        <v>0</v>
+      </c>
+      <c r="V5" s="44">
+        <v>0</v>
+      </c>
+      <c r="W5" s="61">
+        <v>0</v>
+      </c>
+      <c r="X5" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="62">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="65">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="44">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="44">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="54">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="69">
         <v>11110010</v>
       </c>
-      <c r="AK5" s="77" t="s">
+      <c r="AK5" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="AL5" s="77" t="s">
+      <c r="AL5" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="AM5" s="78" t="s">
+      <c r="AM5" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="AN5" s="49"/>
+      <c r="AN5" s="41"/>
       <c r="AU5" s="28"/>
       <c r="AV5" s="28"/>
       <c r="AW5" s="28"/>
@@ -6968,31 +7120,31 @@
       <c r="B6" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="55">
-        <v>1</v>
-      </c>
-      <c r="D6" s="56">
-        <v>1</v>
-      </c>
-      <c r="E6" s="56">
-        <v>1</v>
-      </c>
-      <c r="F6" s="56">
-        <v>1</v>
-      </c>
-      <c r="G6" s="56">
-        <v>0</v>
-      </c>
-      <c r="H6" s="57">
-        <v>0</v>
-      </c>
-      <c r="I6" s="58">
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="48">
+        <v>1</v>
+      </c>
+      <c r="E6" s="48">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48">
+        <v>1</v>
+      </c>
+      <c r="G6" s="48">
+        <v>0</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
         <v>1</v>
       </c>
       <c r="J6" s="15">
         <v>0</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="55">
         <v>1</v>
       </c>
       <c r="L6" s="9">
@@ -7004,80 +7156,80 @@
       <c r="N6" s="9">
         <v>0</v>
       </c>
-      <c r="O6" s="57">
-        <v>0</v>
-      </c>
-      <c r="P6" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="57">
-        <v>0</v>
-      </c>
-      <c r="R6" s="64">
-        <v>0</v>
-      </c>
-      <c r="S6" s="55">
-        <v>0</v>
-      </c>
-      <c r="T6" s="57">
-        <v>0</v>
-      </c>
-      <c r="U6" s="57">
-        <v>0</v>
-      </c>
-      <c r="V6" s="57">
-        <v>0</v>
-      </c>
-      <c r="W6" s="71">
-        <v>0</v>
-      </c>
-      <c r="X6" s="71">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="71">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="57">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="57">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="57">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="57">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="57">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="57">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="78" t="s">
+      <c r="O6" s="49">
+        <v>0</v>
+      </c>
+      <c r="P6" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="49">
+        <v>0</v>
+      </c>
+      <c r="R6" s="56">
+        <v>0</v>
+      </c>
+      <c r="S6" s="47">
+        <v>0</v>
+      </c>
+      <c r="T6" s="49">
+        <v>0</v>
+      </c>
+      <c r="U6" s="49">
+        <v>0</v>
+      </c>
+      <c r="V6" s="49">
+        <v>0</v>
+      </c>
+      <c r="W6" s="63">
+        <v>0</v>
+      </c>
+      <c r="X6" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="64">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="AK6" s="78" t="s">
+      <c r="AK6" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="AL6" s="78" t="s">
+      <c r="AL6" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="AM6" s="78" t="s">
+      <c r="AM6" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="AN6" s="49"/>
+      <c r="AN6" s="41"/>
       <c r="AU6" s="28"/>
       <c r="AV6" s="28"/>
       <c r="AW6" s="28"/>
@@ -7086,31 +7238,31 @@
       <c r="B7" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="55">
-        <v>1</v>
-      </c>
-      <c r="D7" s="56">
-        <v>1</v>
-      </c>
-      <c r="E7" s="56">
-        <v>1</v>
-      </c>
-      <c r="F7" s="56">
-        <v>1</v>
-      </c>
-      <c r="G7" s="56">
-        <v>0</v>
-      </c>
-      <c r="H7" s="57">
-        <v>0</v>
-      </c>
-      <c r="I7" s="58">
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48">
+        <v>1</v>
+      </c>
+      <c r="E7" s="48">
+        <v>1</v>
+      </c>
+      <c r="F7" s="48">
+        <v>1</v>
+      </c>
+      <c r="G7" s="48">
+        <v>0</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
         <v>1</v>
       </c>
       <c r="J7" s="15">
         <v>0</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="55">
         <v>0</v>
       </c>
       <c r="L7" s="9">
@@ -7122,80 +7274,80 @@
       <c r="N7" s="9">
         <v>0</v>
       </c>
-      <c r="O7" s="57">
-        <v>0</v>
-      </c>
-      <c r="P7" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="57">
-        <v>0</v>
-      </c>
-      <c r="R7" s="64">
-        <v>0</v>
-      </c>
-      <c r="S7" s="55">
-        <v>0</v>
-      </c>
-      <c r="T7" s="57">
-        <v>0</v>
-      </c>
-      <c r="U7" s="57">
-        <v>0</v>
-      </c>
-      <c r="V7" s="57">
-        <v>0</v>
-      </c>
-      <c r="W7" s="71">
-        <v>0</v>
-      </c>
-      <c r="X7" s="71">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="71">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="57">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="57">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="57">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="57">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="57">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="57">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="64">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="78" t="s">
+      <c r="O7" s="49">
+        <v>0</v>
+      </c>
+      <c r="P7" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="49">
+        <v>0</v>
+      </c>
+      <c r="R7" s="56">
+        <v>0</v>
+      </c>
+      <c r="S7" s="47">
+        <v>0</v>
+      </c>
+      <c r="T7" s="49">
+        <v>0</v>
+      </c>
+      <c r="U7" s="49">
+        <v>0</v>
+      </c>
+      <c r="V7" s="49">
+        <v>0</v>
+      </c>
+      <c r="W7" s="63">
+        <v>0</v>
+      </c>
+      <c r="X7" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="63">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="64">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="49">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="49">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="49">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="49">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="49">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="49">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="56">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="AK7" s="78" t="s">
+      <c r="AK7" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="AL7" s="78" t="s">
+      <c r="AL7" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="AM7" s="78" t="s">
+      <c r="AM7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="AN7" s="49"/>
+      <c r="AN7" s="41"/>
       <c r="AU7" s="28"/>
       <c r="AV7" s="28"/>
       <c r="AW7" s="28"/>
@@ -7204,31 +7356,31 @@
       <c r="B8" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="55">
-        <v>1</v>
-      </c>
-      <c r="D8" s="56">
-        <v>1</v>
-      </c>
-      <c r="E8" s="56">
-        <v>1</v>
-      </c>
-      <c r="F8" s="56">
-        <v>1</v>
-      </c>
-      <c r="G8" s="56">
-        <v>0</v>
-      </c>
-      <c r="H8" s="57">
-        <v>0</v>
-      </c>
-      <c r="I8" s="58">
+      <c r="C8" s="47">
+        <v>1</v>
+      </c>
+      <c r="D8" s="48">
+        <v>1</v>
+      </c>
+      <c r="E8" s="48">
+        <v>1</v>
+      </c>
+      <c r="F8" s="48">
+        <v>1</v>
+      </c>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
         <v>1</v>
       </c>
       <c r="J8" s="15">
         <v>0</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="55">
         <v>1</v>
       </c>
       <c r="L8" s="9">
@@ -7240,80 +7392,80 @@
       <c r="N8" s="9">
         <v>0</v>
       </c>
-      <c r="O8" s="57">
-        <v>0</v>
-      </c>
-      <c r="P8" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="57">
-        <v>0</v>
-      </c>
-      <c r="R8" s="64">
-        <v>0</v>
-      </c>
-      <c r="S8" s="55">
-        <v>0</v>
-      </c>
-      <c r="T8" s="57">
-        <v>0</v>
-      </c>
-      <c r="U8" s="57">
-        <v>0</v>
-      </c>
-      <c r="V8" s="57">
-        <v>0</v>
-      </c>
-      <c r="W8" s="71">
-        <v>0</v>
-      </c>
-      <c r="X8" s="71">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="71">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="57">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="57">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="57">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="57">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="57">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="57">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="78" t="s">
+      <c r="O8" s="49">
+        <v>0</v>
+      </c>
+      <c r="P8" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="49">
+        <v>0</v>
+      </c>
+      <c r="R8" s="56">
+        <v>0</v>
+      </c>
+      <c r="S8" s="47">
+        <v>0</v>
+      </c>
+      <c r="T8" s="49">
+        <v>0</v>
+      </c>
+      <c r="U8" s="49">
+        <v>0</v>
+      </c>
+      <c r="V8" s="49">
+        <v>0</v>
+      </c>
+      <c r="W8" s="63">
+        <v>0</v>
+      </c>
+      <c r="X8" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="63">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="64">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="AK8" s="78" t="s">
+      <c r="AK8" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="AL8" s="78" t="s">
+      <c r="AL8" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="AM8" s="78" t="s">
+      <c r="AM8" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="AN8" s="49"/>
+      <c r="AN8" s="41"/>
       <c r="AU8" s="28"/>
       <c r="AV8" s="28"/>
       <c r="AW8" s="28"/>
@@ -7322,55 +7474,55 @@
       <c r="B9" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="55">
-        <v>1</v>
-      </c>
-      <c r="D9" s="56">
-        <v>1</v>
-      </c>
-      <c r="E9" s="56">
+      <c r="C9" s="47">
+        <v>1</v>
+      </c>
+      <c r="D9" s="48">
+        <v>1</v>
+      </c>
+      <c r="E9" s="48">
         <v>1</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="56">
-        <v>1</v>
-      </c>
-      <c r="H9" s="56">
-        <v>0</v>
-      </c>
-      <c r="I9" s="56">
-        <v>1</v>
-      </c>
-      <c r="J9" s="59">
-        <v>1</v>
-      </c>
-      <c r="K9" s="65">
-        <v>0</v>
-      </c>
-      <c r="L9" s="66">
-        <v>0</v>
-      </c>
-      <c r="M9" s="66">
+      <c r="G9" s="48">
+        <v>1</v>
+      </c>
+      <c r="H9" s="48">
+        <v>0</v>
+      </c>
+      <c r="I9" s="48">
+        <v>1</v>
+      </c>
+      <c r="J9" s="51">
+        <v>1</v>
+      </c>
+      <c r="K9" s="57">
+        <v>0</v>
+      </c>
+      <c r="L9" s="58">
+        <v>0</v>
+      </c>
+      <c r="M9" s="58">
         <v>0</v>
       </c>
       <c r="N9" s="9">
         <v>0</v>
       </c>
-      <c r="O9" s="67">
-        <v>0</v>
-      </c>
-      <c r="P9" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="67">
-        <v>0</v>
-      </c>
-      <c r="R9" s="68">
-        <v>1</v>
-      </c>
-      <c r="S9" s="63">
+      <c r="O9" s="59">
+        <v>0</v>
+      </c>
+      <c r="P9" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="59">
+        <v>0</v>
+      </c>
+      <c r="R9" s="60">
+        <v>1</v>
+      </c>
+      <c r="S9" s="55">
         <v>0</v>
       </c>
       <c r="T9" s="9">
@@ -7382,19 +7534,19 @@
       <c r="V9" s="9">
         <v>0</v>
       </c>
-      <c r="W9" s="71">
-        <v>0</v>
-      </c>
-      <c r="X9" s="71">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="71">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="72">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="63">
+      <c r="W9" s="63">
+        <v>0</v>
+      </c>
+      <c r="X9" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="63">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="64">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="55">
         <v>0</v>
       </c>
       <c r="AB9" s="9">
@@ -7406,32 +7558,32 @@
       <c r="AD9" s="9">
         <v>0</v>
       </c>
-      <c r="AE9" s="75">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="75">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="76">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="78" t="s">
+      <c r="AE9" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="67">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="67">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="68">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="AK9" s="78" t="s">
+      <c r="AK9" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="AL9" s="78" t="s">
+      <c r="AL9" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="AM9" s="78" t="s">
+      <c r="AM9" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="AN9" s="49"/>
+      <c r="AN9" s="41"/>
       <c r="AU9" s="28"/>
       <c r="AV9" s="28"/>
       <c r="AW9" s="28"/>
@@ -7440,55 +7592,55 @@
       <c r="B10" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="55">
-        <v>1</v>
-      </c>
-      <c r="D10" s="56">
-        <v>1</v>
-      </c>
-      <c r="E10" s="56">
+      <c r="C10" s="47">
+        <v>1</v>
+      </c>
+      <c r="D10" s="48">
+        <v>1</v>
+      </c>
+      <c r="E10" s="48">
         <v>1</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="56">
-        <v>1</v>
-      </c>
-      <c r="H10" s="56">
-        <v>0</v>
-      </c>
-      <c r="I10" s="56">
-        <v>1</v>
-      </c>
-      <c r="J10" s="59">
-        <v>1</v>
-      </c>
-      <c r="K10" s="65">
-        <v>1</v>
-      </c>
-      <c r="L10" s="66">
-        <v>0</v>
-      </c>
-      <c r="M10" s="66">
+      <c r="G10" s="48">
+        <v>1</v>
+      </c>
+      <c r="H10" s="48">
+        <v>0</v>
+      </c>
+      <c r="I10" s="48">
+        <v>1</v>
+      </c>
+      <c r="J10" s="51">
+        <v>1</v>
+      </c>
+      <c r="K10" s="57">
+        <v>1</v>
+      </c>
+      <c r="L10" s="58">
+        <v>0</v>
+      </c>
+      <c r="M10" s="58">
         <v>1</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
       </c>
-      <c r="O10" s="67">
-        <v>0</v>
-      </c>
-      <c r="P10" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="67">
-        <v>1</v>
-      </c>
-      <c r="R10" s="68">
-        <v>0</v>
-      </c>
-      <c r="S10" s="63">
+      <c r="O10" s="59">
+        <v>0</v>
+      </c>
+      <c r="P10" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="59">
+        <v>1</v>
+      </c>
+      <c r="R10" s="60">
+        <v>0</v>
+      </c>
+      <c r="S10" s="55">
         <v>0</v>
       </c>
       <c r="T10" s="9">
@@ -7500,19 +7652,19 @@
       <c r="V10" s="9">
         <v>0</v>
       </c>
-      <c r="W10" s="71">
-        <v>0</v>
-      </c>
-      <c r="X10" s="71">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="71">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="72">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="63">
+      <c r="W10" s="63">
+        <v>0</v>
+      </c>
+      <c r="X10" s="63">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="64">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="55">
         <v>0</v>
       </c>
       <c r="AB10" s="9">
@@ -7524,32 +7676,32 @@
       <c r="AD10" s="9">
         <v>0</v>
       </c>
-      <c r="AE10" s="75">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="75">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="76">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="78" t="s">
+      <c r="AE10" s="67">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="67">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="68">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="AK10" s="78" t="s">
+      <c r="AK10" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="AL10" s="78" t="s">
+      <c r="AL10" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="AM10" s="78" t="s">
+      <c r="AM10" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="AN10" s="49"/>
+      <c r="AN10" s="41"/>
       <c r="AU10" s="28"/>
       <c r="AV10" s="28"/>
       <c r="AW10" s="28"/>
@@ -7558,116 +7710,116 @@
       <c r="B11" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="55">
-        <v>1</v>
-      </c>
-      <c r="D11" s="56">
-        <v>1</v>
-      </c>
-      <c r="E11" s="56">
-        <v>1</v>
-      </c>
-      <c r="F11" s="56">
-        <v>1</v>
-      </c>
-      <c r="G11" s="56">
+      <c r="C11" s="47">
+        <v>1</v>
+      </c>
+      <c r="D11" s="48">
+        <v>1</v>
+      </c>
+      <c r="E11" s="48">
+        <v>1</v>
+      </c>
+      <c r="F11" s="48">
+        <v>1</v>
+      </c>
+      <c r="G11" s="48">
         <v>0</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
       </c>
-      <c r="I11" s="57">
-        <v>1</v>
-      </c>
-      <c r="J11" s="64">
-        <v>1</v>
-      </c>
-      <c r="K11" s="74">
-        <v>1</v>
-      </c>
-      <c r="L11" s="57">
-        <v>1</v>
-      </c>
-      <c r="M11" s="57">
-        <v>1</v>
-      </c>
-      <c r="N11" s="57">
-        <v>1</v>
-      </c>
-      <c r="O11" s="57">
-        <v>1</v>
-      </c>
-      <c r="P11" s="57">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="57">
-        <v>1</v>
-      </c>
-      <c r="R11" s="64">
-        <v>1</v>
-      </c>
-      <c r="S11" s="55">
+      <c r="I11" s="49">
+        <v>1</v>
+      </c>
+      <c r="J11" s="56">
+        <v>1</v>
+      </c>
+      <c r="K11" s="66">
+        <v>1</v>
+      </c>
+      <c r="L11" s="49">
+        <v>1</v>
+      </c>
+      <c r="M11" s="49">
+        <v>1</v>
+      </c>
+      <c r="N11" s="49">
+        <v>1</v>
+      </c>
+      <c r="O11" s="49">
+        <v>1</v>
+      </c>
+      <c r="P11" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="49">
+        <v>1</v>
+      </c>
+      <c r="R11" s="56">
+        <v>1</v>
+      </c>
+      <c r="S11" s="47">
         <v>1</v>
       </c>
       <c r="T11" s="9">
         <v>0</v>
       </c>
-      <c r="U11" s="57">
+      <c r="U11" s="49">
         <v>1</v>
       </c>
       <c r="V11" s="9">
         <v>1</v>
       </c>
-      <c r="W11" s="57">
-        <v>1</v>
-      </c>
-      <c r="X11" s="57">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="57">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="64">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="74">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="57">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="57">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="57">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="57">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="57">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="57">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="64">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="78" t="s">
+      <c r="W11" s="49">
+        <v>1</v>
+      </c>
+      <c r="X11" s="49">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="56">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="66">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="49">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="49">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="49">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="49">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="49">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="49">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="56">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="AK11" s="78" t="s">
+      <c r="AK11" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="AL11" s="78" t="s">
+      <c r="AL11" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="AM11" s="78" t="s">
+      <c r="AM11" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="AN11" s="49"/>
+      <c r="AN11" s="41"/>
       <c r="AU11" s="28"/>
       <c r="AV11" s="28"/>
       <c r="AW11" s="28"/>
@@ -7772,20 +7924,20 @@
       <c r="AH12" s="14">
         <v>0</v>
       </c>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="78" t="s">
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="AK12" s="78" t="s">
+      <c r="AK12" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="AL12" s="78" t="s">
+      <c r="AL12" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="AM12" s="78" t="s">
+      <c r="AM12" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="AN12" s="49"/>
+      <c r="AN12" s="41"/>
       <c r="AU12" s="28"/>
       <c r="AV12" s="28"/>
       <c r="AW12" s="28"/>
@@ -7793,12 +7945,12 @@
     <row r="15" spans="2:49">
       <c r="AJ15" s="28"/>
       <c r="AK15" s="28"/>
-      <c r="AL15" s="46" t="s">
+      <c r="AL15" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
     </row>
     <row r="16" spans="2:49">
       <c r="AJ16" s="28"/>
@@ -7819,7 +7971,7 @@
       </c>
     </row>
     <row r="17" spans="36:41">
-      <c r="AJ17" s="45" t="s">
+      <c r="AJ17" s="86" t="s">
         <v>152</v>
       </c>
       <c r="AK17" s="28" t="s">
@@ -7839,7 +7991,7 @@
       </c>
     </row>
     <row r="18" spans="36:41">
-      <c r="AJ18" s="45"/>
+      <c r="AJ18" s="86"/>
       <c r="AK18" s="28" t="s">
         <v>151</v>
       </c>
@@ -7857,7 +8009,7 @@
       </c>
     </row>
     <row r="19" spans="36:41">
-      <c r="AJ19" s="45" t="s">
+      <c r="AJ19" s="86" t="s">
         <v>153</v>
       </c>
       <c r="AK19" s="28" t="s">
@@ -7877,7 +8029,7 @@
       </c>
     </row>
     <row r="20" spans="36:41">
-      <c r="AJ20" s="45"/>
+      <c r="AJ20" s="86"/>
       <c r="AK20" s="28" t="s">
         <v>155</v>
       </c>
@@ -7895,7 +8047,7 @@
       </c>
     </row>
     <row r="21" spans="36:41">
-      <c r="AJ21" s="44"/>
+      <c r="AJ21" s="38"/>
       <c r="AK21" s="28" t="s">
         <v>156</v>
       </c>
@@ -7913,7 +8065,7 @@
       </c>
     </row>
     <row r="22" spans="36:41">
-      <c r="AJ22" s="44"/>
+      <c r="AJ22" s="38"/>
       <c r="AK22" s="28" t="s">
         <v>157</v>
       </c>
@@ -7931,7 +8083,7 @@
       </c>
     </row>
     <row r="23" spans="36:41" ht="30">
-      <c r="AJ23" s="44" t="s">
+      <c r="AJ23" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AK23" s="28" t="s">
@@ -7971,12 +8123,12 @@
     <row r="26" spans="36:41">
       <c r="AJ26" s="28"/>
       <c r="AK26" s="28"/>
-      <c r="AL26" s="46" t="s">
+      <c r="AL26" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="46"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
     </row>
     <row r="27" spans="36:41">
       <c r="AJ27" s="28"/>
@@ -7989,7 +8141,7 @@
       <c r="AO27" s="28"/>
     </row>
     <row r="28" spans="36:41">
-      <c r="AJ28" s="45" t="s">
+      <c r="AJ28" s="86" t="s">
         <v>152</v>
       </c>
       <c r="AK28" s="28" t="s">
@@ -8001,7 +8153,7 @@
       <c r="AO28" s="28"/>
     </row>
     <row r="29" spans="36:41">
-      <c r="AJ29" s="45"/>
+      <c r="AJ29" s="86"/>
       <c r="AK29" s="28" t="s">
         <v>151</v>
       </c>
@@ -8011,7 +8163,7 @@
       <c r="AO29" s="28"/>
     </row>
     <row r="30" spans="36:41">
-      <c r="AJ30" s="45" t="s">
+      <c r="AJ30" s="86" t="s">
         <v>153</v>
       </c>
       <c r="AK30" s="28" t="s">
@@ -8023,7 +8175,7 @@
       <c r="AO30" s="28"/>
     </row>
     <row r="31" spans="36:41">
-      <c r="AJ31" s="45"/>
+      <c r="AJ31" s="86"/>
       <c r="AK31" s="28" t="s">
         <v>155</v>
       </c>
@@ -8033,7 +8185,7 @@
       <c r="AO31" s="28"/>
     </row>
     <row r="32" spans="36:41">
-      <c r="AJ32" s="44"/>
+      <c r="AJ32" s="38"/>
       <c r="AK32" s="28" t="s">
         <v>156</v>
       </c>
@@ -8043,7 +8195,7 @@
       <c r="AO32" s="28"/>
     </row>
     <row r="33" spans="36:41">
-      <c r="AJ33" s="44"/>
+      <c r="AJ33" s="38"/>
       <c r="AK33" s="28" t="s">
         <v>157</v>
       </c>
@@ -8053,7 +8205,7 @@
       <c r="AO33" s="28"/>
     </row>
     <row r="34" spans="36:41" ht="30">
-      <c r="AJ34" s="44" t="s">
+      <c r="AJ34" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AK34" s="28" t="s">

--- a/PDFs/Instrucciones implementadas.xlsx
+++ b/PDFs/Instrucciones implementadas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18855" windowHeight="11760" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="264">
   <si>
     <t>Instruction</t>
   </si>
@@ -645,12 +645,213 @@
   <si>
     <t>ALU16</t>
   </si>
+  <si>
+    <t>Add R4, R2, R1</t>
+  </si>
+  <si>
+    <t>And R4, R2, R1</t>
+  </si>
+  <si>
+    <t>Eor R4, R2, R1</t>
+  </si>
+  <si>
+    <t>Orr R4, R2, R1</t>
+  </si>
+  <si>
+    <t>Sub R4, R2, R1</t>
+  </si>
+  <si>
+    <t>Mov R4, R1</t>
+  </si>
+  <si>
+    <t>Cmp R2, R1</t>
+  </si>
+  <si>
+    <t>BEQ &lt;-24&gt;</t>
+  </si>
+  <si>
+    <t>BGT &lt;-24&gt;</t>
+  </si>
+  <si>
+    <t>BLT &lt;-24&gt;</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>Opcode</t>
+  </si>
+  <si>
+    <t>Mnemónico</t>
+  </si>
+  <si>
+    <t>Significado</t>
+  </si>
+  <si>
+    <t>Condición</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>Z = 1</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Distintos</t>
+  </si>
+  <si>
+    <t>Z = 0</t>
+  </si>
+  <si>
+    <t>CS/HS</t>
+  </si>
+  <si>
+    <t>Acarreo / Sobre o igual</t>
+  </si>
+  <si>
+    <t>C = 1</t>
+  </si>
+  <si>
+    <t>CC/LO</t>
+  </si>
+  <si>
+    <t>Sin Acarreo / Debajo</t>
+  </si>
+  <si>
+    <t>C = 0</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>N = 1</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Positivo o Cero</t>
+  </si>
+  <si>
+    <t>N = 0</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>Desborde</t>
+  </si>
+  <si>
+    <t>V = 1</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Sin desborde</t>
+  </si>
+  <si>
+    <t>V = 0</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Sobre</t>
+  </si>
+  <si>
+    <t>C = 1 y Z = 0</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Debajo o Igual</t>
+  </si>
+  <si>
+    <t>C = 0 o Z = 1</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Mayor o Igual</t>
+  </si>
+  <si>
+    <t>N = V</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>N &lt;&gt; V</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>Z = 0 y N = V</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>Menor o Igual</t>
+  </si>
+  <si>
+    <t>Z = 1 o N &lt;&gt; V</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Sin Condición</t>
+  </si>
+  <si>
+    <t>No Usado</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>http://ciii.frc.utn.edu.ar/TecnicasDigitalesII/WebHome/ASMIntroduccionARM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,8 +875,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,8 +945,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -895,11 +1134,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFADB9CC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFADB9CC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFADB9CC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFADB9CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1095,10 +1353,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1110,17 +1377,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1548,98 +1829,98 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
     </row>
     <row r="4" spans="2:34">
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="35">
         <v>0</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
       <c r="S4" s="34"/>
-      <c r="T4" s="81" t="s">
+      <c r="T4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81" t="s">
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81" t="s">
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
     </row>
     <row r="5" spans="2:34">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1655,48 +1936,48 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="M5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80" t="s">
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80" t="s">
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80" t="s">
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
     </row>
     <row r="6" spans="2:34">
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1712,38 +1993,38 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80" t="s">
+      <c r="N6" s="83"/>
+      <c r="O6" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80" t="s">
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80" t="s">
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80" t="s">
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
     </row>
     <row r="7" spans="2:34">
       <c r="T7" s="3"/>
@@ -1785,88 +2066,88 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="84"/>
     </row>
     <row r="9" spans="2:34">
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80" t="s">
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
       <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
       <c r="S9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="80" t="s">
+      <c r="T9" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80" t="s">
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80" t="s">
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80" t="s">
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80" t="s">
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="80"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="4" t="s">
@@ -1893,98 +2174,98 @@
       <c r="I11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="84"/>
     </row>
     <row r="12" spans="2:34">
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="80"/>
+      <c r="M12" s="83"/>
       <c r="N12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="80" t="s">
+      <c r="O12" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80" t="s">
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80" t="s">
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="80"/>
-      <c r="AF12" s="80"/>
-      <c r="AG12" s="80"/>
-      <c r="AH12" s="80"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
       <c r="J13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="80"/>
+      <c r="K13" s="83"/>
       <c r="L13" s="1">
         <v>0</v>
       </c>
@@ -1994,42 +2275,42 @@
       <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="80"/>
-      <c r="AE13" s="80"/>
-      <c r="AF13" s="80"/>
-      <c r="AG13" s="80"/>
-      <c r="AH13" s="80"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="80"/>
+      <c r="K14" s="83"/>
       <c r="L14" s="1">
         <v>1</v>
       </c>
@@ -2039,26 +2320,26 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="80"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="4" t="s">
@@ -2079,61 +2360,61 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
       <c r="S16" s="5">
         <v>1</v>
       </c>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="84"/>
     </row>
     <row r="17" spans="2:34">
       <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="I17" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
       <c r="T17" s="1">
         <v>0</v>
       </c>
@@ -2146,47 +2427,47 @@
       <c r="W17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X17" s="80" t="s">
+      <c r="X17" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="80"/>
-      <c r="AH17" s="80"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="83"/>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="83"/>
     </row>
     <row r="18" spans="2:34">
       <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80" t="s">
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
       <c r="T18" s="1">
         <v>0</v>
       </c>
@@ -2199,55 +2480,22 @@
       <c r="W18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="80" t="s">
+      <c r="X18" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="80"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="T3:AH3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="X18:AH18"/>
-    <mergeCell ref="J11:AH11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="X17:AH17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="C12:I14"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="H16:R16"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S13:V14"/>
-    <mergeCell ref="W13:AH14"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:AH12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="O13:R14"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AH9"/>
     <mergeCell ref="C5:G6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="S5:S6"/>
@@ -2264,6 +2512,39 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="H16:R16"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S13:V14"/>
+    <mergeCell ref="W13:AH14"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:AH12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="O13:R14"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="X18:AH18"/>
+    <mergeCell ref="J11:AH11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="X17:AH17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="C12:I14"/>
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="T3:AH3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AH4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2422,35 +2703,35 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
       <c r="AN3" s="8" t="s">
         <v>31</v>
       </c>
@@ -2465,54 +2746,54 @@
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="35">
         <v>0</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="81" t="s">
+      <c r="T4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81" t="s">
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81" t="s">
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
       <c r="AJ4" t="s">
         <v>4</v>
       </c>
@@ -2533,11 +2814,11 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2553,38 +2834,38 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="M5" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="88" t="s">
+      <c r="N5" s="83"/>
+      <c r="O5" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80" t="s">
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80" t="s">
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80" t="s">
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
       <c r="AK5" t="s">
         <v>15</v>
       </c>
@@ -2602,11 +2883,11 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2622,38 +2903,38 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80" t="s">
+      <c r="N6" s="83"/>
+      <c r="O6" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80" t="s">
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80" t="s">
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80" t="s">
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
       <c r="AK6" t="s">
         <v>16</v>
       </c>
@@ -2879,15 +3160,15 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="29"/>
-      <c r="AL14" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="85"/>
+      <c r="AL14" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="88"/>
     </row>
     <row r="15" spans="2:44" ht="15.75" thickBot="1">
       <c r="B15" t="s">
@@ -3838,13 +4119,13 @@
       <c r="AH24" s="30">
         <v>0</v>
       </c>
-      <c r="AL24" s="83" t="s">
+      <c r="AL24" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="AM24" s="84"/>
-      <c r="AN24" s="84"/>
-      <c r="AO24" s="84"/>
-      <c r="AP24" s="85"/>
+      <c r="AM24" s="87"/>
+      <c r="AN24" s="87"/>
+      <c r="AO24" s="87"/>
+      <c r="AP24" s="88"/>
       <c r="AQ24" s="1"/>
     </row>
     <row r="25" spans="2:49" ht="15.75" thickBot="1">
@@ -4119,13 +4400,13 @@
     </row>
     <row r="29" spans="2:49" ht="15.75" thickBot="1">
       <c r="AI29" s="36"/>
-      <c r="AL29" s="83" t="s">
+      <c r="AL29" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="AM29" s="84"/>
-      <c r="AN29" s="84"/>
-      <c r="AO29" s="84"/>
-      <c r="AP29" s="85"/>
+      <c r="AM29" s="87"/>
+      <c r="AN29" s="87"/>
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="88"/>
       <c r="AQ29" s="1"/>
       <c r="AS29"/>
       <c r="AW29" s="1"/>
@@ -4250,6 +4531,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AA6:AH6"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="C5:G6"/>
     <mergeCell ref="C4:G4"/>
@@ -4266,13 +4554,6 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="AL14:AR14"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4284,7 +4565,7 @@
   <dimension ref="B2:AU28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O19" sqref="O19:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4429,88 +4710,88 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
     </row>
     <row r="4" spans="2:43">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
       <c r="S4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="80" t="s">
+      <c r="T4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80" t="s">
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80" t="s">
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80" t="s">
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80" t="s">
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
       <c r="AK4" t="s">
         <v>93</v>
       </c>
@@ -4561,15 +4842,15 @@
     </row>
     <row r="9" spans="2:43" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:43" ht="15.75" thickBot="1">
-      <c r="AK10" s="83" t="s">
+      <c r="AK10" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="85"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="88"/>
     </row>
     <row r="11" spans="2:43" ht="15.75" thickBot="1">
       <c r="B11" s="28" t="s">
@@ -4858,6 +5139,105 @@
       </c>
     </row>
     <row r="15" spans="2:43">
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="81">
+        <v>1</v>
+      </c>
+      <c r="D15" s="81">
+        <v>1</v>
+      </c>
+      <c r="E15" s="81">
+        <v>1</v>
+      </c>
+      <c r="F15" s="80">
+        <v>0</v>
+      </c>
+      <c r="G15" s="81">
+        <v>1</v>
+      </c>
+      <c r="H15" s="81">
+        <v>0</v>
+      </c>
+      <c r="I15" s="81">
+        <v>1</v>
+      </c>
+      <c r="J15" s="40">
+        <v>1</v>
+      </c>
+      <c r="K15" s="40">
+        <v>0</v>
+      </c>
+      <c r="L15" s="40">
+        <v>0</v>
+      </c>
+      <c r="M15" s="40">
+        <v>0</v>
+      </c>
+      <c r="N15" s="80">
+        <v>0</v>
+      </c>
+      <c r="O15" s="27">
+        <v>0</v>
+      </c>
+      <c r="P15" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>1</v>
+      </c>
+      <c r="R15" s="27">
+        <v>0</v>
+      </c>
+      <c r="S15" s="80">
+        <v>0</v>
+      </c>
+      <c r="T15" s="80">
+        <v>0</v>
+      </c>
+      <c r="U15" s="80">
+        <v>0</v>
+      </c>
+      <c r="V15" s="80">
+        <v>0</v>
+      </c>
+      <c r="W15" s="39">
+        <v>0</v>
+      </c>
+      <c r="X15" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="80">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="25">
+        <v>1</v>
+      </c>
       <c r="AK15" s="7" t="s">
         <v>28</v>
       </c>
@@ -4879,6 +5259,105 @@
       <c r="AQ15" s="10"/>
     </row>
     <row r="16" spans="2:43">
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="81">
+        <v>1</v>
+      </c>
+      <c r="D16" s="81">
+        <v>1</v>
+      </c>
+      <c r="E16" s="81">
+        <v>1</v>
+      </c>
+      <c r="F16" s="80">
+        <v>0</v>
+      </c>
+      <c r="G16" s="81">
+        <v>1</v>
+      </c>
+      <c r="H16" s="81">
+        <v>0</v>
+      </c>
+      <c r="I16" s="81">
+        <v>1</v>
+      </c>
+      <c r="J16" s="40">
+        <v>0</v>
+      </c>
+      <c r="K16" s="40">
+        <v>0</v>
+      </c>
+      <c r="L16" s="40">
+        <v>0</v>
+      </c>
+      <c r="M16" s="40">
+        <v>0</v>
+      </c>
+      <c r="N16" s="80">
+        <v>0</v>
+      </c>
+      <c r="O16" s="27">
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>1</v>
+      </c>
+      <c r="R16" s="27">
+        <v>0</v>
+      </c>
+      <c r="S16" s="80">
+        <v>0</v>
+      </c>
+      <c r="T16" s="80">
+        <v>0</v>
+      </c>
+      <c r="U16" s="80">
+        <v>0</v>
+      </c>
+      <c r="V16" s="80">
+        <v>0</v>
+      </c>
+      <c r="W16" s="39">
+        <v>0</v>
+      </c>
+      <c r="X16" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="80">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="25">
+        <v>1</v>
+      </c>
       <c r="AK16" s="7" t="s">
         <v>25</v>
       </c>
@@ -4901,7 +5380,106 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="3:47">
+    <row r="17" spans="2:47">
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="81">
+        <v>1</v>
+      </c>
+      <c r="D17" s="81">
+        <v>1</v>
+      </c>
+      <c r="E17" s="81">
+        <v>1</v>
+      </c>
+      <c r="F17" s="80">
+        <v>0</v>
+      </c>
+      <c r="G17" s="81">
+        <v>1</v>
+      </c>
+      <c r="H17" s="81">
+        <v>0</v>
+      </c>
+      <c r="I17" s="81">
+        <v>1</v>
+      </c>
+      <c r="J17" s="40">
+        <v>1</v>
+      </c>
+      <c r="K17" s="40">
+        <v>1</v>
+      </c>
+      <c r="L17" s="40">
+        <v>0</v>
+      </c>
+      <c r="M17" s="40">
+        <v>1</v>
+      </c>
+      <c r="N17" s="80">
+        <v>1</v>
+      </c>
+      <c r="O17" s="27">
+        <v>0</v>
+      </c>
+      <c r="P17" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>1</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0</v>
+      </c>
+      <c r="S17" s="80">
+        <v>0</v>
+      </c>
+      <c r="T17" s="80">
+        <v>0</v>
+      </c>
+      <c r="U17" s="80">
+        <v>0</v>
+      </c>
+      <c r="V17" s="80">
+        <v>0</v>
+      </c>
+      <c r="W17" s="39">
+        <v>1</v>
+      </c>
+      <c r="X17" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="39">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="80">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="25">
+        <v>1</v>
+      </c>
       <c r="AK17" s="7" t="s">
         <v>30</v>
       </c>
@@ -4922,7 +5500,106 @@
       </c>
       <c r="AQ17" s="10"/>
     </row>
-    <row r="18" spans="3:47" ht="15.75" thickBot="1">
+    <row r="18" spans="2:47" ht="15.75" thickBot="1">
+      <c r="B18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="81">
+        <v>1</v>
+      </c>
+      <c r="D18" s="81">
+        <v>1</v>
+      </c>
+      <c r="E18" s="81">
+        <v>1</v>
+      </c>
+      <c r="F18" s="80">
+        <v>0</v>
+      </c>
+      <c r="G18" s="81">
+        <v>1</v>
+      </c>
+      <c r="H18" s="81">
+        <v>0</v>
+      </c>
+      <c r="I18" s="81">
+        <v>1</v>
+      </c>
+      <c r="J18" s="40">
+        <v>0</v>
+      </c>
+      <c r="K18" s="40">
+        <v>1</v>
+      </c>
+      <c r="L18" s="40">
+        <v>0</v>
+      </c>
+      <c r="M18" s="40">
+        <v>0</v>
+      </c>
+      <c r="N18" s="80">
+        <v>0</v>
+      </c>
+      <c r="O18" s="27">
+        <v>0</v>
+      </c>
+      <c r="P18" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>1</v>
+      </c>
+      <c r="R18" s="27">
+        <v>0</v>
+      </c>
+      <c r="S18" s="80">
+        <v>0</v>
+      </c>
+      <c r="T18" s="80">
+        <v>0</v>
+      </c>
+      <c r="U18" s="80">
+        <v>0</v>
+      </c>
+      <c r="V18" s="80">
+        <v>0</v>
+      </c>
+      <c r="W18" s="39">
+        <v>0</v>
+      </c>
+      <c r="X18" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="80">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="25">
+        <v>1</v>
+      </c>
       <c r="AK18" s="11" t="s">
         <v>29</v>
       </c>
@@ -4943,42 +5620,211 @@
       </c>
       <c r="AQ18" s="14"/>
     </row>
-    <row r="19" spans="3:47">
+    <row r="19" spans="2:47">
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="81">
+        <v>1</v>
+      </c>
+      <c r="D19" s="81">
+        <v>1</v>
+      </c>
+      <c r="E19" s="81">
+        <v>1</v>
+      </c>
+      <c r="F19" s="80">
+        <v>0</v>
+      </c>
+      <c r="G19" s="81">
+        <v>1</v>
+      </c>
+      <c r="H19" s="81">
+        <v>0</v>
+      </c>
+      <c r="I19" s="81">
+        <v>1</v>
+      </c>
+      <c r="J19" s="40">
+        <v>0</v>
+      </c>
+      <c r="K19" s="40">
+        <v>0</v>
+      </c>
+      <c r="L19" s="40">
+        <v>1</v>
+      </c>
+      <c r="M19" s="40">
+        <v>0</v>
+      </c>
+      <c r="N19" s="80">
+        <v>0</v>
+      </c>
+      <c r="O19" s="27">
+        <v>1</v>
+      </c>
+      <c r="P19" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>1</v>
+      </c>
+      <c r="R19" s="27">
+        <v>1</v>
+      </c>
+      <c r="S19" s="80">
+        <v>0</v>
+      </c>
+      <c r="T19" s="80">
+        <v>0</v>
+      </c>
+      <c r="U19" s="80">
+        <v>0</v>
+      </c>
+      <c r="V19" s="80">
+        <v>0</v>
+      </c>
+      <c r="W19" s="39">
+        <v>0</v>
+      </c>
+      <c r="X19" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="80">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="25">
+        <v>1</v>
+      </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="3:47">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
+    <row r="20" spans="2:47">
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="81">
+        <v>1</v>
+      </c>
+      <c r="D20" s="81">
+        <v>1</v>
+      </c>
+      <c r="E20" s="81">
+        <v>1</v>
+      </c>
+      <c r="F20" s="80">
+        <v>0</v>
+      </c>
+      <c r="G20" s="81">
+        <v>1</v>
+      </c>
+      <c r="H20" s="81">
+        <v>0</v>
+      </c>
+      <c r="I20" s="81">
+        <v>1</v>
+      </c>
+      <c r="J20" s="40">
+        <v>0</v>
+      </c>
+      <c r="K20" s="40">
+        <v>0</v>
+      </c>
+      <c r="L20" s="40">
+        <v>1</v>
+      </c>
+      <c r="M20" s="40">
+        <v>0</v>
+      </c>
+      <c r="N20" s="80">
+        <v>0</v>
+      </c>
+      <c r="O20" s="27">
+        <v>0</v>
+      </c>
+      <c r="P20" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>1</v>
+      </c>
+      <c r="R20" s="27">
+        <v>0</v>
+      </c>
+      <c r="S20" s="80">
+        <v>0</v>
+      </c>
+      <c r="T20" s="80">
+        <v>0</v>
+      </c>
+      <c r="U20" s="80">
+        <v>0</v>
+      </c>
+      <c r="V20" s="80">
+        <v>0</v>
+      </c>
+      <c r="W20" s="39">
+        <v>0</v>
+      </c>
+      <c r="X20" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="80">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="25">
+        <v>1</v>
+      </c>
       <c r="AK20" s="1"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
@@ -4989,34 +5835,106 @@
       <c r="AT20"/>
       <c r="AU20"/>
     </row>
-    <row r="21" spans="3:47">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
+    <row r="21" spans="2:47">
+      <c r="B21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="81">
+        <v>1</v>
+      </c>
+      <c r="D21" s="81">
+        <v>1</v>
+      </c>
+      <c r="E21" s="81">
+        <v>1</v>
+      </c>
+      <c r="F21" s="80">
+        <v>0</v>
+      </c>
+      <c r="G21" s="81">
+        <v>1</v>
+      </c>
+      <c r="H21" s="81">
+        <v>0</v>
+      </c>
+      <c r="I21" s="81">
+        <v>1</v>
+      </c>
+      <c r="J21" s="40">
+        <v>1</v>
+      </c>
+      <c r="K21" s="40">
+        <v>1</v>
+      </c>
+      <c r="L21" s="40">
+        <v>0</v>
+      </c>
+      <c r="M21" s="40">
+        <v>1</v>
+      </c>
+      <c r="N21" s="80">
+        <v>0</v>
+      </c>
+      <c r="O21" s="27">
+        <v>0</v>
+      </c>
+      <c r="P21" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>1</v>
+      </c>
+      <c r="R21" s="27">
+        <v>0</v>
+      </c>
+      <c r="S21" s="80">
+        <v>0</v>
+      </c>
+      <c r="T21" s="80">
+        <v>0</v>
+      </c>
+      <c r="U21" s="80">
+        <v>0</v>
+      </c>
+      <c r="V21" s="80">
+        <v>0</v>
+      </c>
+      <c r="W21" s="39">
+        <v>0</v>
+      </c>
+      <c r="X21" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="80">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="25">
+        <v>1</v>
+      </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -5026,7 +5944,7 @@
       <c r="AT21"/>
       <c r="AU21"/>
     </row>
-    <row r="22" spans="3:47">
+    <row r="22" spans="2:47">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -5063,7 +5981,7 @@
       <c r="AT22"/>
       <c r="AU22"/>
     </row>
-    <row r="23" spans="3:47">
+    <row r="23" spans="2:47">
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -5073,7 +5991,7 @@
       <c r="AT23"/>
       <c r="AU23"/>
     </row>
-    <row r="24" spans="3:47">
+    <row r="24" spans="2:47">
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -5083,7 +6001,7 @@
       <c r="AT24"/>
       <c r="AU24"/>
     </row>
-    <row r="25" spans="3:47">
+    <row r="25" spans="2:47">
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
@@ -5093,7 +6011,7 @@
       <c r="AT25"/>
       <c r="AU25"/>
     </row>
-    <row r="26" spans="3:47">
+    <row r="26" spans="2:47">
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
@@ -5103,7 +6021,7 @@
       <c r="AT26"/>
       <c r="AU26"/>
     </row>
-    <row r="27" spans="3:47">
+    <row r="27" spans="2:47">
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -5113,7 +6031,7 @@
       <c r="AT27"/>
       <c r="AU27"/>
     </row>
-    <row r="28" spans="3:47">
+    <row r="28" spans="2:47">
       <c r="AK28" s="1"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
@@ -5147,7 +6065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -5299,82 +6217,82 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="80"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80" t="s">
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80" t="s">
+      <c r="T4" s="83"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
       <c r="AJ4" t="s">
         <v>96</v>
       </c>
@@ -5393,38 +6311,38 @@
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="80" t="s">
+      <c r="O5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80" t="s">
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80" t="s">
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
       <c r="AJ5" t="s">
         <v>63</v>
       </c>
@@ -5443,38 +6361,38 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80" t="s">
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80" t="s">
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
       <c r="AJ6" t="s">
         <v>64</v>
       </c>
@@ -5501,15 +6419,15 @@
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ10" s="83" t="s">
+      <c r="AJ10" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="85"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="88"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1">
       <c r="AJ11" s="17" t="s">
@@ -6084,11 +7002,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="S3:AH3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
     <mergeCell ref="AJ10:AP10"/>
     <mergeCell ref="W4:AH4"/>
     <mergeCell ref="S4:V4"/>
@@ -6100,6 +7013,11 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="S6:V6"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S3:AH3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6107,10 +7025,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AT28"/>
+  <dimension ref="B2:AT44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6120,7 +7038,10 @@
     <col min="24" max="34" width="3" style="1" customWidth="1"/>
     <col min="35" max="35" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.85546875" customWidth="1"/>
-    <col min="38" max="40" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -6251,61 +7172,61 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
       <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
       <c r="T4" s="1">
         <v>0</v>
       </c>
@@ -6318,19 +7239,19 @@
       <c r="W4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X4" s="80" t="s">
+      <c r="X4" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="80"/>
-      <c r="AE4" s="80"/>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="80"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
       <c r="AJ4" s="3" t="s">
         <v>100</v>
       </c>
@@ -6342,29 +7263,29 @@
       <c r="B5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80" t="s">
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="1">
         <v>0</v>
       </c>
@@ -6377,19 +7298,19 @@
       <c r="W5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="80" t="s">
+      <c r="X5" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
       <c r="AJ5" t="s">
         <v>85</v>
       </c>
@@ -6404,6 +7325,12 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
+      <c r="K6" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="L6" s="80" t="s">
+        <v>208</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="AJ6" t="s">
         <v>86</v>
@@ -6707,7 +7634,7 @@
       <c r="AO16" s="9"/>
       <c r="AP16" s="8"/>
     </row>
-    <row r="17" spans="36:46">
+    <row r="17" spans="2:46">
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
       <c r="AL17" s="9"/>
@@ -6716,7 +7643,106 @@
       <c r="AO17" s="9"/>
       <c r="AP17" s="8"/>
     </row>
-    <row r="18" spans="36:46">
+    <row r="18" spans="2:46">
+      <c r="B18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="81">
+        <v>1</v>
+      </c>
+      <c r="D18" s="81">
+        <v>1</v>
+      </c>
+      <c r="E18" s="81">
+        <v>1</v>
+      </c>
+      <c r="F18" s="81">
+        <v>1</v>
+      </c>
+      <c r="G18" s="81">
+        <v>0</v>
+      </c>
+      <c r="H18" s="80">
+        <v>1</v>
+      </c>
+      <c r="I18" s="92">
+        <v>0</v>
+      </c>
+      <c r="J18" s="92">
+        <v>0</v>
+      </c>
+      <c r="K18" s="92">
+        <v>0</v>
+      </c>
+      <c r="L18" s="92">
+        <v>1</v>
+      </c>
+      <c r="M18" s="30">
+        <v>1</v>
+      </c>
+      <c r="N18" s="30">
+        <v>1</v>
+      </c>
+      <c r="O18" s="30">
+        <v>1</v>
+      </c>
+      <c r="P18" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>1</v>
+      </c>
+      <c r="R18" s="30">
+        <v>1</v>
+      </c>
+      <c r="S18" s="81">
+        <v>1</v>
+      </c>
+      <c r="T18" s="80">
+        <v>0</v>
+      </c>
+      <c r="U18" s="30">
+        <v>1</v>
+      </c>
+      <c r="V18" s="80">
+        <v>1</v>
+      </c>
+      <c r="W18" s="30">
+        <v>1</v>
+      </c>
+      <c r="X18" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="30">
+        <v>0</v>
+      </c>
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
       <c r="AL18" s="9"/>
@@ -6725,13 +7751,211 @@
       <c r="AO18" s="9"/>
       <c r="AP18" s="8"/>
     </row>
-    <row r="19" spans="36:46">
+    <row r="19" spans="2:46">
+      <c r="B19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="81">
+        <v>1</v>
+      </c>
+      <c r="D19" s="81">
+        <v>1</v>
+      </c>
+      <c r="E19" s="81">
+        <v>1</v>
+      </c>
+      <c r="F19" s="81">
+        <v>1</v>
+      </c>
+      <c r="G19" s="81">
+        <v>0</v>
+      </c>
+      <c r="H19" s="80">
+        <v>1</v>
+      </c>
+      <c r="I19" s="92">
+        <v>0</v>
+      </c>
+      <c r="J19" s="92">
+        <v>0</v>
+      </c>
+      <c r="K19" s="92">
+        <v>0</v>
+      </c>
+      <c r="L19" s="92">
+        <v>0</v>
+      </c>
+      <c r="M19" s="30">
+        <v>1</v>
+      </c>
+      <c r="N19" s="30">
+        <v>1</v>
+      </c>
+      <c r="O19" s="30">
+        <v>1</v>
+      </c>
+      <c r="P19" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>1</v>
+      </c>
+      <c r="R19" s="30">
+        <v>1</v>
+      </c>
+      <c r="S19" s="81">
+        <v>1</v>
+      </c>
+      <c r="T19" s="80">
+        <v>0</v>
+      </c>
+      <c r="U19" s="30">
+        <v>1</v>
+      </c>
+      <c r="V19" s="80">
+        <v>1</v>
+      </c>
+      <c r="W19" s="30">
+        <v>1</v>
+      </c>
+      <c r="X19" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="30">
+        <v>0</v>
+      </c>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
     </row>
-    <row r="20" spans="36:46">
+    <row r="20" spans="2:46">
+      <c r="B20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="81">
+        <v>1</v>
+      </c>
+      <c r="D20" s="81">
+        <v>1</v>
+      </c>
+      <c r="E20" s="81">
+        <v>1</v>
+      </c>
+      <c r="F20" s="81">
+        <v>1</v>
+      </c>
+      <c r="G20" s="81">
+        <v>0</v>
+      </c>
+      <c r="H20" s="80">
+        <v>1</v>
+      </c>
+      <c r="I20" s="92">
+        <v>0</v>
+      </c>
+      <c r="J20" s="92">
+        <v>0</v>
+      </c>
+      <c r="K20" s="92">
+        <v>1</v>
+      </c>
+      <c r="L20" s="92">
+        <v>0</v>
+      </c>
+      <c r="M20" s="30">
+        <v>1</v>
+      </c>
+      <c r="N20" s="30">
+        <v>1</v>
+      </c>
+      <c r="O20" s="30">
+        <v>1</v>
+      </c>
+      <c r="P20" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>1</v>
+      </c>
+      <c r="R20" s="30">
+        <v>1</v>
+      </c>
+      <c r="S20" s="81">
+        <v>1</v>
+      </c>
+      <c r="T20" s="80">
+        <v>0</v>
+      </c>
+      <c r="U20" s="30">
+        <v>1</v>
+      </c>
+      <c r="V20" s="80">
+        <v>1</v>
+      </c>
+      <c r="W20" s="30">
+        <v>1</v>
+      </c>
+      <c r="X20" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="30">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="30">
+        <v>0</v>
+      </c>
       <c r="AJ20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
@@ -6742,7 +7966,7 @@
       <c r="AS20"/>
       <c r="AT20"/>
     </row>
-    <row r="21" spans="36:46">
+    <row r="21" spans="2:46">
       <c r="AJ21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
@@ -6753,7 +7977,7 @@
       <c r="AS21"/>
       <c r="AT21"/>
     </row>
-    <row r="22" spans="36:46">
+    <row r="22" spans="2:46" ht="15.75" thickBot="1">
       <c r="AJ22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
@@ -6764,9 +7988,19 @@
       <c r="AS22"/>
       <c r="AT22"/>
     </row>
-    <row r="23" spans="36:46">
-      <c r="AJ23" s="1"/>
-      <c r="AL23" s="1"/>
+    <row r="23" spans="2:46" ht="15.75" thickBot="1">
+      <c r="AI23" s="93" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ23" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK23" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL23" s="93" t="s">
+        <v>212</v>
+      </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -6775,10 +8009,22 @@
       <c r="AS23"/>
       <c r="AT23"/>
     </row>
-    <row r="24" spans="36:46">
-      <c r="AJ24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
+    <row r="24" spans="2:46" ht="15.75" thickBot="1">
+      <c r="AI24" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ24" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK24" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL24" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM24" s="82" t="s">
+        <v>258</v>
+      </c>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
       <c r="AQ24"/>
@@ -6786,10 +8032,20 @@
       <c r="AS24"/>
       <c r="AT24"/>
     </row>
-    <row r="25" spans="36:46">
-      <c r="AJ25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
+    <row r="25" spans="2:46" ht="15.75" thickBot="1">
+      <c r="AI25" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ25" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK25" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL25" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM25" s="82"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AQ25"/>
@@ -6797,10 +8053,20 @@
       <c r="AS25"/>
       <c r="AT25"/>
     </row>
-    <row r="26" spans="36:46">
-      <c r="AJ26" s="1"/>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
+    <row r="26" spans="2:46" ht="15.75" thickBot="1">
+      <c r="AI26" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ26" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK26" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL26" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM26" s="82"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AQ26"/>
@@ -6808,10 +8074,24 @@
       <c r="AS26"/>
       <c r="AT26"/>
     </row>
-    <row r="27" spans="36:46">
-      <c r="AJ27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
+    <row r="27" spans="2:46" ht="15.75" thickBot="1">
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="AI27" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ27" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK27" s="96" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL27" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM27" s="82"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AQ27"/>
@@ -6819,16 +8099,206 @@
       <c r="AS27"/>
       <c r="AT27"/>
     </row>
-    <row r="28" spans="36:46">
-      <c r="AJ28" s="1"/>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
+    <row r="28" spans="2:46" ht="15.75" thickBot="1">
+      <c r="AI28" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ28" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK28" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL28" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM28" s="82" t="s">
+        <v>186</v>
+      </c>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
       <c r="AQ28"/>
       <c r="AR28"/>
       <c r="AS28"/>
       <c r="AT28"/>
+    </row>
+    <row r="29" spans="2:46" ht="15.75" thickBot="1">
+      <c r="AI29" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ29" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK29" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL29" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM29" s="82" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="2:46" ht="15.75" thickBot="1">
+      <c r="AI30" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ30" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK30" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL30" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM30" s="82"/>
+    </row>
+    <row r="31" spans="2:46" ht="15.75" thickBot="1">
+      <c r="AI31" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ31" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK31" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL31" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM31" s="82"/>
+    </row>
+    <row r="32" spans="2:46" ht="15.75" thickBot="1">
+      <c r="AI32" s="96">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK32" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL32" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM32" s="82"/>
+    </row>
+    <row r="33" spans="35:39" ht="15.75" thickBot="1">
+      <c r="AI33" s="96">
+        <v>1001</v>
+      </c>
+      <c r="AJ33" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK33" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL33" s="96" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM33" s="82"/>
+    </row>
+    <row r="34" spans="35:39" ht="15.75" thickBot="1">
+      <c r="AI34" s="96">
+        <v>1010</v>
+      </c>
+      <c r="AJ34" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK34" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL34" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM34" s="82"/>
+    </row>
+    <row r="35" spans="35:39" ht="15.75" thickBot="1">
+      <c r="AI35" s="96">
+        <v>1011</v>
+      </c>
+      <c r="AJ35" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK35" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL35" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM35" s="82"/>
+    </row>
+    <row r="36" spans="35:39" ht="15.75" thickBot="1">
+      <c r="AI36" s="96">
+        <v>1100</v>
+      </c>
+      <c r="AJ36" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK36" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL36" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM36" s="82"/>
+    </row>
+    <row r="37" spans="35:39" ht="15.75" thickBot="1">
+      <c r="AI37" s="96">
+        <v>1101</v>
+      </c>
+      <c r="AJ37" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK37" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL37" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM37" s="82"/>
+    </row>
+    <row r="38" spans="35:39" ht="15.75" thickBot="1">
+      <c r="AI38" s="96">
+        <v>1110</v>
+      </c>
+      <c r="AJ38" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK38" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL38" s="96"/>
+      <c r="AM38" s="82"/>
+    </row>
+    <row r="39" spans="35:39" ht="15.75" thickBot="1">
+      <c r="AI39" s="96">
+        <v>1111</v>
+      </c>
+      <c r="AJ39" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK39" s="96"/>
+      <c r="AL39" s="96"/>
+      <c r="AM39" s="82"/>
+    </row>
+    <row r="40" spans="35:39">
+      <c r="AI40" s="94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="35:39">
+      <c r="AI41" s="82"/>
+    </row>
+    <row r="42" spans="35:39">
+      <c r="AI42" s="82"/>
+    </row>
+    <row r="43" spans="35:39">
+      <c r="AI43" s="82"/>
+    </row>
+    <row r="44" spans="35:39">
+      <c r="AI44" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6842,8 +8312,14 @@
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:R5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AI40" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="AI24:AI25 AI26:AI31 AM24:AM39" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -7945,12 +9421,12 @@
     <row r="15" spans="2:49">
       <c r="AJ15" s="28"/>
       <c r="AK15" s="28"/>
-      <c r="AL15" s="87" t="s">
+      <c r="AL15" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
+      <c r="AM15" s="91"/>
+      <c r="AN15" s="91"/>
+      <c r="AO15" s="91"/>
     </row>
     <row r="16" spans="2:49">
       <c r="AJ16" s="28"/>
@@ -7971,7 +9447,7 @@
       </c>
     </row>
     <row r="17" spans="36:41">
-      <c r="AJ17" s="86" t="s">
+      <c r="AJ17" s="90" t="s">
         <v>152</v>
       </c>
       <c r="AK17" s="28" t="s">
@@ -7991,7 +9467,7 @@
       </c>
     </row>
     <row r="18" spans="36:41">
-      <c r="AJ18" s="86"/>
+      <c r="AJ18" s="90"/>
       <c r="AK18" s="28" t="s">
         <v>151</v>
       </c>
@@ -8009,7 +9485,7 @@
       </c>
     </row>
     <row r="19" spans="36:41">
-      <c r="AJ19" s="86" t="s">
+      <c r="AJ19" s="90" t="s">
         <v>153</v>
       </c>
       <c r="AK19" s="28" t="s">
@@ -8029,7 +9505,7 @@
       </c>
     </row>
     <row r="20" spans="36:41">
-      <c r="AJ20" s="86"/>
+      <c r="AJ20" s="90"/>
       <c r="AK20" s="28" t="s">
         <v>155</v>
       </c>
@@ -8123,12 +9599,12 @@
     <row r="26" spans="36:41">
       <c r="AJ26" s="28"/>
       <c r="AK26" s="28"/>
-      <c r="AL26" s="87" t="s">
+      <c r="AL26" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
+      <c r="AM26" s="91"/>
+      <c r="AN26" s="91"/>
+      <c r="AO26" s="91"/>
     </row>
     <row r="27" spans="36:41">
       <c r="AJ27" s="28"/>
@@ -8141,7 +9617,7 @@
       <c r="AO27" s="28"/>
     </row>
     <row r="28" spans="36:41">
-      <c r="AJ28" s="86" t="s">
+      <c r="AJ28" s="90" t="s">
         <v>152</v>
       </c>
       <c r="AK28" s="28" t="s">
@@ -8153,7 +9629,7 @@
       <c r="AO28" s="28"/>
     </row>
     <row r="29" spans="36:41">
-      <c r="AJ29" s="86"/>
+      <c r="AJ29" s="90"/>
       <c r="AK29" s="28" t="s">
         <v>151</v>
       </c>
@@ -8163,7 +9639,7 @@
       <c r="AO29" s="28"/>
     </row>
     <row r="30" spans="36:41">
-      <c r="AJ30" s="86" t="s">
+      <c r="AJ30" s="90" t="s">
         <v>153</v>
       </c>
       <c r="AK30" s="28" t="s">
@@ -8175,7 +9651,7 @@
       <c r="AO30" s="28"/>
     </row>
     <row r="31" spans="36:41">
-      <c r="AJ31" s="86"/>
+      <c r="AJ31" s="90"/>
       <c r="AK31" s="28" t="s">
         <v>155</v>
       </c>

--- a/PDFs/Instrucciones implementadas.xlsx
+++ b/PDFs/Instrucciones implementadas.xlsx
@@ -1359,33 +1359,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1398,6 +1371,33 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1829,98 +1829,98 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
     </row>
     <row r="4" spans="2:34">
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="35">
         <v>0</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="34"/>
-      <c r="T4" s="85" t="s">
+      <c r="T4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85" t="s">
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85" t="s">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
     </row>
     <row r="5" spans="2:34">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1936,48 +1936,48 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83" t="s">
+      <c r="N5" s="88"/>
+      <c r="O5" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83" t="s">
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83" t="s">
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83" t="s">
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
     </row>
     <row r="6" spans="2:34">
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1993,38 +1993,38 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83" t="s">
+      <c r="N6" s="88"/>
+      <c r="O6" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83" t="s">
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83" t="s">
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83" t="s">
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
     </row>
     <row r="7" spans="2:34">
       <c r="T7" s="3"/>
@@ -2066,88 +2066,88 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
     </row>
     <row r="9" spans="2:34">
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83" t="s">
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
       <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="83" t="s">
+      <c r="O9" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
       <c r="S9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="83" t="s">
+      <c r="T9" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83" t="s">
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83" t="s">
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83" t="s">
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83" t="s">
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="4" t="s">
@@ -2174,98 +2174,98 @@
       <c r="I11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
     </row>
     <row r="12" spans="2:34">
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="83" t="s">
+      <c r="L12" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="83"/>
+      <c r="M12" s="88"/>
       <c r="N12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="83" t="s">
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83" t="s">
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="83"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
+      <c r="AE12" s="88"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="88"/>
+      <c r="AH12" s="88"/>
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
       <c r="J13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="83"/>
+      <c r="K13" s="88"/>
       <c r="L13" s="1">
         <v>0</v>
       </c>
@@ -2275,42 +2275,42 @@
       <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="83"/>
-      <c r="Y13" s="83"/>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="83"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="83"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="83"/>
+      <c r="K14" s="88"/>
       <c r="L14" s="1">
         <v>1</v>
       </c>
@@ -2320,26 +2320,26 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="83"/>
-      <c r="Y14" s="83"/>
-      <c r="Z14" s="83"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="83"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="88"/>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="4" t="s">
@@ -2360,61 +2360,61 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
       <c r="S16" s="5">
         <v>1</v>
       </c>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="90"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
     </row>
     <row r="17" spans="2:34">
       <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
       <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="83" t="s">
+      <c r="I17" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="88"/>
       <c r="T17" s="1">
         <v>0</v>
       </c>
@@ -2427,47 +2427,47 @@
       <c r="W17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X17" s="83" t="s">
+      <c r="X17" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="83"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="88"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="88"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="88"/>
+      <c r="AH17" s="88"/>
     </row>
     <row r="18" spans="2:34">
       <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
       <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="83" t="s">
+      <c r="I18" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83" t="s">
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
       <c r="T18" s="1">
         <v>0</v>
       </c>
@@ -2480,22 +2480,55 @@
       <c r="W18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="83" t="s">
+      <c r="X18" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="83"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="88"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AA6:AH6"/>
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="T3:AH3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="X18:AH18"/>
+    <mergeCell ref="J11:AH11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="X17:AH17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="C12:I14"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="H16:R16"/>
+    <mergeCell ref="T16:AH16"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="S13:V14"/>
+    <mergeCell ref="W13:AH14"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:AH12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="O13:R14"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AH9"/>
     <mergeCell ref="C5:G6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="S5:S6"/>
@@ -2512,39 +2545,6 @@
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="H16:R16"/>
-    <mergeCell ref="T16:AH16"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S13:V14"/>
-    <mergeCell ref="W13:AH14"/>
-    <mergeCell ref="W9:Z9"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:AH12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="O13:R14"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="X18:AH18"/>
-    <mergeCell ref="J11:AH11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="X17:AH17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="C12:I14"/>
-    <mergeCell ref="AA6:AH6"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="T3:AH3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="AA4:AH4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2703,35 +2703,35 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
       <c r="S3" s="5">
         <v>0</v>
       </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
       <c r="AN3" s="8" t="s">
         <v>31</v>
       </c>
@@ -2746,54 +2746,54 @@
       <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="35">
         <v>0</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="85" t="s">
+      <c r="T4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85" t="s">
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85" t="s">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
       <c r="AJ4" t="s">
         <v>4</v>
       </c>
@@ -2814,11 +2814,11 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2834,38 +2834,38 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="89" t="s">
+      <c r="N5" s="88"/>
+      <c r="O5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83" t="s">
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83" t="s">
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83" t="s">
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
       <c r="AK5" t="s">
         <v>15</v>
       </c>
@@ -2883,11 +2883,11 @@
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2903,38 +2903,38 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83" t="s">
+      <c r="N6" s="88"/>
+      <c r="O6" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83" t="s">
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83" t="s">
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83" t="s">
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
       <c r="AK6" t="s">
         <v>16</v>
       </c>
@@ -3160,15 +3160,15 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="29"/>
-      <c r="AL14" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="87"/>
-      <c r="AN14" s="87"/>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="88"/>
+      <c r="AL14" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="94"/>
     </row>
     <row r="15" spans="2:44" ht="15.75" thickBot="1">
       <c r="B15" t="s">
@@ -4119,13 +4119,13 @@
       <c r="AH24" s="30">
         <v>0</v>
       </c>
-      <c r="AL24" s="86" t="s">
+      <c r="AL24" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="AM24" s="87"/>
-      <c r="AN24" s="87"/>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="88"/>
+      <c r="AM24" s="93"/>
+      <c r="AN24" s="93"/>
+      <c r="AO24" s="93"/>
+      <c r="AP24" s="94"/>
       <c r="AQ24" s="1"/>
     </row>
     <row r="25" spans="2:49" ht="15.75" thickBot="1">
@@ -4400,13 +4400,13 @@
     </row>
     <row r="29" spans="2:49" ht="15.75" thickBot="1">
       <c r="AI29" s="36"/>
-      <c r="AL29" s="86" t="s">
+      <c r="AL29" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="AM29" s="87"/>
-      <c r="AN29" s="87"/>
-      <c r="AO29" s="87"/>
-      <c r="AP29" s="88"/>
+      <c r="AM29" s="93"/>
+      <c r="AN29" s="93"/>
+      <c r="AO29" s="93"/>
+      <c r="AP29" s="94"/>
       <c r="AQ29" s="1"/>
       <c r="AS29"/>
       <c r="AW29" s="1"/>
@@ -4531,13 +4531,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AH5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Z6"/>
-    <mergeCell ref="AA6:AH6"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="C5:G6"/>
     <mergeCell ref="C4:G4"/>
@@ -4554,6 +4547,13 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="AL14:AR14"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AH5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="AA6:AH6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4710,88 +4710,88 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
     </row>
     <row r="4" spans="2:43">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
       <c r="S4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="83" t="s">
+      <c r="T4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83" t="s">
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83" t="s">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83" t="s">
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83" t="s">
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
       <c r="AK4" t="s">
         <v>93</v>
       </c>
@@ -4842,15 +4842,15 @@
     </row>
     <row r="9" spans="2:43" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:43" ht="15.75" thickBot="1">
-      <c r="AK10" s="86" t="s">
+      <c r="AK10" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="88"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="94"/>
     </row>
     <row r="11" spans="2:43" ht="15.75" thickBot="1">
       <c r="B11" s="28" t="s">
@@ -6217,82 +6217,82 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
     </row>
     <row r="4" spans="2:42">
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="83" t="s">
+      <c r="L4" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="83"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83" t="s">
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83" t="s">
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
       <c r="AJ4" t="s">
         <v>96</v>
       </c>
@@ -6311,38 +6311,38 @@
       <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="83" t="s">
+      <c r="O5" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83" t="s">
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83" t="s">
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
       <c r="AJ5" t="s">
         <v>63</v>
       </c>
@@ -6361,38 +6361,38 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83" t="s">
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83" t="s">
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
       <c r="AJ6" t="s">
         <v>64</v>
       </c>
@@ -6419,15 +6419,15 @@
     </row>
     <row r="9" spans="2:42" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:42" ht="15.75" thickBot="1">
-      <c r="AJ10" s="86" t="s">
+      <c r="AJ10" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="88"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="94"/>
     </row>
     <row r="11" spans="2:42" ht="15.75" thickBot="1">
       <c r="AJ11" s="17" t="s">
@@ -7002,6 +7002,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S3:AH3"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
     <mergeCell ref="AJ10:AP10"/>
     <mergeCell ref="W4:AH4"/>
     <mergeCell ref="S4:V4"/>
@@ -7013,11 +7018,6 @@
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="S6:V6"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="S3:AH3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7028,7 +7028,7 @@
   <dimension ref="B2:AT44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7172,61 +7172,61 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
       <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="90"/>
     </row>
     <row r="4" spans="2:46">
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
       <c r="T4" s="1">
         <v>0</v>
       </c>
@@ -7239,19 +7239,19 @@
       <c r="W4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X4" s="83" t="s">
+      <c r="X4" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
       <c r="AJ4" s="3" t="s">
         <v>100</v>
       </c>
@@ -7263,29 +7263,29 @@
       <c r="B5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83" t="s">
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="1">
         <v>0</v>
       </c>
@@ -7298,19 +7298,19 @@
       <c r="W5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="83" t="s">
+      <c r="X5" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
       <c r="AJ5" t="s">
         <v>85</v>
       </c>
@@ -7665,16 +7665,16 @@
       <c r="H18" s="80">
         <v>1</v>
       </c>
-      <c r="I18" s="92">
-        <v>0</v>
-      </c>
-      <c r="J18" s="92">
-        <v>0</v>
-      </c>
-      <c r="K18" s="92">
-        <v>0</v>
-      </c>
-      <c r="L18" s="92">
+      <c r="I18" s="83">
+        <v>0</v>
+      </c>
+      <c r="J18" s="83">
+        <v>0</v>
+      </c>
+      <c r="K18" s="83">
+        <v>0</v>
+      </c>
+      <c r="L18" s="83">
         <v>1</v>
       </c>
       <c r="M18" s="30">
@@ -7705,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="30">
         <v>1</v>
@@ -7773,16 +7773,16 @@
       <c r="H19" s="80">
         <v>1</v>
       </c>
-      <c r="I19" s="92">
-        <v>0</v>
-      </c>
-      <c r="J19" s="92">
-        <v>0</v>
-      </c>
-      <c r="K19" s="92">
-        <v>0</v>
-      </c>
-      <c r="L19" s="92">
+      <c r="I19" s="83">
+        <v>0</v>
+      </c>
+      <c r="J19" s="83">
+        <v>0</v>
+      </c>
+      <c r="K19" s="83">
+        <v>0</v>
+      </c>
+      <c r="L19" s="83">
         <v>0</v>
       </c>
       <c r="M19" s="30">
@@ -7813,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="30">
         <v>1</v>
@@ -7878,16 +7878,16 @@
       <c r="H20" s="80">
         <v>1</v>
       </c>
-      <c r="I20" s="92">
-        <v>0</v>
-      </c>
-      <c r="J20" s="92">
-        <v>0</v>
-      </c>
-      <c r="K20" s="92">
-        <v>1</v>
-      </c>
-      <c r="L20" s="92">
+      <c r="I20" s="83">
+        <v>0</v>
+      </c>
+      <c r="J20" s="83">
+        <v>0</v>
+      </c>
+      <c r="K20" s="83">
+        <v>1</v>
+      </c>
+      <c r="L20" s="83">
         <v>0</v>
       </c>
       <c r="M20" s="30">
@@ -7918,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="30">
         <v>1</v>
@@ -7989,16 +7989,16 @@
       <c r="AT22"/>
     </row>
     <row r="23" spans="2:46" ht="15.75" thickBot="1">
-      <c r="AI23" s="93" t="s">
+      <c r="AI23" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="AJ23" s="93" t="s">
+      <c r="AJ23" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="AK23" s="93" t="s">
+      <c r="AK23" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="AL23" s="93" t="s">
+      <c r="AL23" s="84" t="s">
         <v>212</v>
       </c>
       <c r="AM23" s="1"/>
@@ -8010,16 +8010,16 @@
       <c r="AT23"/>
     </row>
     <row r="24" spans="2:46" ht="15.75" thickBot="1">
-      <c r="AI24" s="95" t="s">
+      <c r="AI24" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="AJ24" s="95" t="s">
+      <c r="AJ24" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="AK24" s="95" t="s">
+      <c r="AK24" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="AL24" s="95" t="s">
+      <c r="AL24" s="86" t="s">
         <v>215</v>
       </c>
       <c r="AM24" s="82" t="s">
@@ -8033,16 +8033,16 @@
       <c r="AT24"/>
     </row>
     <row r="25" spans="2:46" ht="15.75" thickBot="1">
-      <c r="AI25" s="96" t="s">
+      <c r="AI25" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="AJ25" s="96" t="s">
+      <c r="AJ25" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="AK25" s="96" t="s">
+      <c r="AK25" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="AL25" s="96" t="s">
+      <c r="AL25" s="87" t="s">
         <v>218</v>
       </c>
       <c r="AM25" s="82"/>
@@ -8054,16 +8054,16 @@
       <c r="AT25"/>
     </row>
     <row r="26" spans="2:46" ht="15.75" thickBot="1">
-      <c r="AI26" s="96" t="s">
+      <c r="AI26" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="AJ26" s="96" t="s">
+      <c r="AJ26" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="AK26" s="96" t="s">
+      <c r="AK26" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="AL26" s="96" t="s">
+      <c r="AL26" s="87" t="s">
         <v>221</v>
       </c>
       <c r="AM26" s="82"/>
@@ -8079,16 +8079,16 @@
       <c r="Q27" s="80"/>
       <c r="R27" s="80"/>
       <c r="S27" s="80"/>
-      <c r="AI27" s="96" t="s">
+      <c r="AI27" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="AJ27" s="96" t="s">
+      <c r="AJ27" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="AK27" s="96" t="s">
+      <c r="AK27" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="AL27" s="96" t="s">
+      <c r="AL27" s="87" t="s">
         <v>224</v>
       </c>
       <c r="AM27" s="82"/>
@@ -8100,16 +8100,16 @@
       <c r="AT27"/>
     </row>
     <row r="28" spans="2:46" ht="15.75" thickBot="1">
-      <c r="AI28" s="95" t="s">
+      <c r="AI28" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="AJ28" s="95" t="s">
+      <c r="AJ28" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="AK28" s="95" t="s">
+      <c r="AK28" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="AL28" s="95" t="s">
+      <c r="AL28" s="86" t="s">
         <v>227</v>
       </c>
       <c r="AM28" s="82" t="s">
@@ -8123,16 +8123,16 @@
       <c r="AT28"/>
     </row>
     <row r="29" spans="2:46" ht="15.75" thickBot="1">
-      <c r="AI29" s="95" t="s">
+      <c r="AI29" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="AJ29" s="95" t="s">
+      <c r="AJ29" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="AK29" s="95" t="s">
+      <c r="AK29" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="AL29" s="95" t="s">
+      <c r="AL29" s="86" t="s">
         <v>230</v>
       </c>
       <c r="AM29" s="82" t="s">
@@ -8140,151 +8140,151 @@
       </c>
     </row>
     <row r="30" spans="2:46" ht="15.75" thickBot="1">
-      <c r="AI30" s="96" t="s">
+      <c r="AI30" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="AJ30" s="96" t="s">
+      <c r="AJ30" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="AK30" s="96" t="s">
+      <c r="AK30" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="AL30" s="96" t="s">
+      <c r="AL30" s="87" t="s">
         <v>233</v>
       </c>
       <c r="AM30" s="82"/>
     </row>
     <row r="31" spans="2:46" ht="15.75" thickBot="1">
-      <c r="AI31" s="96" t="s">
+      <c r="AI31" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="AJ31" s="96" t="s">
+      <c r="AJ31" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="AK31" s="96" t="s">
+      <c r="AK31" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="AL31" s="96" t="s">
+      <c r="AL31" s="87" t="s">
         <v>236</v>
       </c>
       <c r="AM31" s="82"/>
     </row>
     <row r="32" spans="2:46" ht="15.75" thickBot="1">
-      <c r="AI32" s="96">
+      <c r="AI32" s="87">
         <v>1000</v>
       </c>
-      <c r="AJ32" s="96" t="s">
+      <c r="AJ32" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="AK32" s="96" t="s">
+      <c r="AK32" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="AL32" s="96" t="s">
+      <c r="AL32" s="87" t="s">
         <v>239</v>
       </c>
       <c r="AM32" s="82"/>
     </row>
     <row r="33" spans="35:39" ht="15.75" thickBot="1">
-      <c r="AI33" s="96">
+      <c r="AI33" s="87">
         <v>1001</v>
       </c>
-      <c r="AJ33" s="96" t="s">
+      <c r="AJ33" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="AK33" s="96" t="s">
+      <c r="AK33" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="AL33" s="96" t="s">
+      <c r="AL33" s="87" t="s">
         <v>242</v>
       </c>
       <c r="AM33" s="82"/>
     </row>
     <row r="34" spans="35:39" ht="15.75" thickBot="1">
-      <c r="AI34" s="96">
+      <c r="AI34" s="87">
         <v>1010</v>
       </c>
-      <c r="AJ34" s="96" t="s">
+      <c r="AJ34" s="87" t="s">
         <v>243</v>
       </c>
-      <c r="AK34" s="96" t="s">
+      <c r="AK34" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="AL34" s="96" t="s">
+      <c r="AL34" s="87" t="s">
         <v>245</v>
       </c>
       <c r="AM34" s="82"/>
     </row>
     <row r="35" spans="35:39" ht="15.75" thickBot="1">
-      <c r="AI35" s="96">
+      <c r="AI35" s="87">
         <v>1011</v>
       </c>
-      <c r="AJ35" s="96" t="s">
+      <c r="AJ35" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="AK35" s="96" t="s">
+      <c r="AK35" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="AL35" s="96" t="s">
+      <c r="AL35" s="87" t="s">
         <v>248</v>
       </c>
       <c r="AM35" s="82"/>
     </row>
     <row r="36" spans="35:39" ht="15.75" thickBot="1">
-      <c r="AI36" s="96">
+      <c r="AI36" s="87">
         <v>1100</v>
       </c>
-      <c r="AJ36" s="96" t="s">
+      <c r="AJ36" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="AK36" s="96" t="s">
+      <c r="AK36" s="87" t="s">
         <v>250</v>
       </c>
-      <c r="AL36" s="96" t="s">
+      <c r="AL36" s="87" t="s">
         <v>251</v>
       </c>
       <c r="AM36" s="82"/>
     </row>
     <row r="37" spans="35:39" ht="15.75" thickBot="1">
-      <c r="AI37" s="96">
+      <c r="AI37" s="87">
         <v>1101</v>
       </c>
-      <c r="AJ37" s="96" t="s">
+      <c r="AJ37" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="AK37" s="96" t="s">
+      <c r="AK37" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="AL37" s="96" t="s">
+      <c r="AL37" s="87" t="s">
         <v>254</v>
       </c>
       <c r="AM37" s="82"/>
     </row>
     <row r="38" spans="35:39" ht="15.75" thickBot="1">
-      <c r="AI38" s="96">
+      <c r="AI38" s="87">
         <v>1110</v>
       </c>
-      <c r="AJ38" s="96" t="s">
+      <c r="AJ38" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="AK38" s="96" t="s">
+      <c r="AK38" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="AL38" s="96"/>
+      <c r="AL38" s="87"/>
       <c r="AM38" s="82"/>
     </row>
     <row r="39" spans="35:39" ht="15.75" thickBot="1">
-      <c r="AI39" s="96">
+      <c r="AI39" s="87">
         <v>1111</v>
       </c>
-      <c r="AJ39" s="96" t="s">
+      <c r="AJ39" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="AK39" s="96"/>
-      <c r="AL39" s="96"/>
+      <c r="AK39" s="87"/>
+      <c r="AL39" s="87"/>
       <c r="AM39" s="82"/>
     </row>
     <row r="40" spans="35:39">
-      <c r="AI40" s="94" t="s">
+      <c r="AI40" s="85" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9421,12 +9421,12 @@
     <row r="15" spans="2:49">
       <c r="AJ15" s="28"/>
       <c r="AK15" s="28"/>
-      <c r="AL15" s="91" t="s">
+      <c r="AL15" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="AM15" s="91"/>
-      <c r="AN15" s="91"/>
-      <c r="AO15" s="91"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="96"/>
+      <c r="AO15" s="96"/>
     </row>
     <row r="16" spans="2:49">
       <c r="AJ16" s="28"/>
@@ -9447,7 +9447,7 @@
       </c>
     </row>
     <row r="17" spans="36:41">
-      <c r="AJ17" s="90" t="s">
+      <c r="AJ17" s="95" t="s">
         <v>152</v>
       </c>
       <c r="AK17" s="28" t="s">
@@ -9467,7 +9467,7 @@
       </c>
     </row>
     <row r="18" spans="36:41">
-      <c r="AJ18" s="90"/>
+      <c r="AJ18" s="95"/>
       <c r="AK18" s="28" t="s">
         <v>151</v>
       </c>
@@ -9485,7 +9485,7 @@
       </c>
     </row>
     <row r="19" spans="36:41">
-      <c r="AJ19" s="90" t="s">
+      <c r="AJ19" s="95" t="s">
         <v>153</v>
       </c>
       <c r="AK19" s="28" t="s">
@@ -9505,7 +9505,7 @@
       </c>
     </row>
     <row r="20" spans="36:41">
-      <c r="AJ20" s="90"/>
+      <c r="AJ20" s="95"/>
       <c r="AK20" s="28" t="s">
         <v>155</v>
       </c>
@@ -9599,12 +9599,12 @@
     <row r="26" spans="36:41">
       <c r="AJ26" s="28"/>
       <c r="AK26" s="28"/>
-      <c r="AL26" s="91" t="s">
+      <c r="AL26" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="AM26" s="91"/>
-      <c r="AN26" s="91"/>
-      <c r="AO26" s="91"/>
+      <c r="AM26" s="96"/>
+      <c r="AN26" s="96"/>
+      <c r="AO26" s="96"/>
     </row>
     <row r="27" spans="36:41">
       <c r="AJ27" s="28"/>
@@ -9617,7 +9617,7 @@
       <c r="AO27" s="28"/>
     </row>
     <row r="28" spans="36:41">
-      <c r="AJ28" s="90" t="s">
+      <c r="AJ28" s="95" t="s">
         <v>152</v>
       </c>
       <c r="AK28" s="28" t="s">
@@ -9629,7 +9629,7 @@
       <c r="AO28" s="28"/>
     </row>
     <row r="29" spans="36:41">
-      <c r="AJ29" s="90"/>
+      <c r="AJ29" s="95"/>
       <c r="AK29" s="28" t="s">
         <v>151</v>
       </c>
@@ -9639,7 +9639,7 @@
       <c r="AO29" s="28"/>
     </row>
     <row r="30" spans="36:41">
-      <c r="AJ30" s="90" t="s">
+      <c r="AJ30" s="95" t="s">
         <v>153</v>
       </c>
       <c r="AK30" s="28" t="s">
@@ -9651,7 +9651,7 @@
       <c r="AO30" s="28"/>
     </row>
     <row r="31" spans="36:41">
-      <c r="AJ31" s="90"/>
+      <c r="AJ31" s="95"/>
       <c r="AK31" s="28" t="s">
         <v>155</v>
       </c>
